--- a/CalculationOfGrahamNumber.xlsx
+++ b/CalculationOfGrahamNumber.xlsx
@@ -580,12 +580,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>928.00</t>
+          <t>910.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1,307.66</t>
+          <t>1,303.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>51.93</t>
+          <t>50.92</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -610,12 +610,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3,407,090,844.80</t>
+          <t>3,341,005,031.00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -632,7 +632,7 @@
         <v>233.4550625923542</v>
       </c>
       <c r="O2" t="n">
-        <v>694.5449374076459</v>
+        <v>676.5449374076459</v>
       </c>
     </row>
     <row r="3">
@@ -653,12 +653,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>373.00</t>
+          <t>368.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>404.53</t>
+          <t>402.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>25.64</t>
+          <t>25.30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>73,507,744,696.80</t>
+          <t>72,542,093,358.96</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -705,7 +705,7 @@
         <v>236.630978529862</v>
       </c>
       <c r="O3" t="n">
-        <v>136.369021470138</v>
+        <v>131.469021470138</v>
       </c>
     </row>
     <row r="4">
@@ -731,7 +731,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>494.01</t>
+          <t>493.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>640.00</t>
+          <t>635.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>699.26</t>
+          <t>698.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>69.04</t>
+          <t>68.51</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>6,400,000,000.00</t>
+          <t>6,351,000,000.00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -851,7 +851,7 @@
         <v>152.7045677116438</v>
       </c>
       <c r="O5" t="n">
-        <v>487.2954322883562</v>
+        <v>482.3954322883562</v>
       </c>
     </row>
     <row r="6">
@@ -872,12 +872,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>244.00</t>
+          <t>240.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>294.09</t>
+          <t>293.69</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>25.85</t>
+          <t>25.42</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1,952,000,000.00</t>
+          <t>1,920,000,000.00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -924,7 +924,7 @@
         <v>123.4921859876162</v>
       </c>
       <c r="O6" t="n">
-        <v>120.5078140123838</v>
+        <v>116.5078140123838</v>
       </c>
     </row>
     <row r="7">
@@ -945,12 +945,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>420.00</t>
+          <t>423.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>513.69</t>
+          <t>512.87</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>19.58</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -975,12 +975,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>7,791,884,100.00</t>
+          <t>7,847,540,415.00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -997,7 +997,7 @@
         <v>232.3882957465802</v>
       </c>
       <c r="O7" t="n">
-        <v>187.6117042534198</v>
+        <v>190.6117042534198</v>
       </c>
     </row>
     <row r="8">
@@ -1018,12 +1018,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1,400.00</t>
+          <t>1,399.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1,477.93</t>
+          <t>1,478.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>29.22</t>
+          <t>29.20</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4,674,796,000.00</t>
+          <t>4,673,126,430.00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1070,7 +1070,7 @@
         <v>422.2964361677707</v>
       </c>
       <c r="O8" t="n">
-        <v>977.7035638322293</v>
+        <v>977.2035638322293</v>
       </c>
     </row>
     <row r="9">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>820.00</t>
+          <t>805.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>980.81</t>
+          <t>976.70</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>20,610,297,380.00</t>
+          <t>20,235,793,195.90</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>820</v>
+        <v>805.1</v>
       </c>
     </row>
     <row r="10">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>303.00</t>
+          <t>306.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>461.36</t>
+          <t>459.82</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>30,300.00</t>
+          <t>30,600.00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11,650,094,100,169.82</t>
+          <t>11,765,441,566,508.13</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1216,7 +1216,7 @@
         <v>4.743653655148107</v>
       </c>
       <c r="O10" t="n">
-        <v>298.2563463448519</v>
+        <v>301.2563463448519</v>
       </c>
     </row>
     <row r="11">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>407.00</t>
+          <t>400.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>496.09</t>
+          <t>495.35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>26.67</t>
+          <t>26.21</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1267,12 +1267,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1,090,383,525.00</t>
+          <t>1,071,630,000.00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1289,7 +1289,7 @@
         <v>193.8990072176751</v>
       </c>
       <c r="O11" t="n">
-        <v>213.1009927823249</v>
+        <v>206.1009927823249</v>
       </c>
     </row>
     <row r="12">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4,697.25</t>
+          <t>4,695.74</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>463.92</t>
+          <t>463.70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>500.00</t>
+          <t>491.10</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>595.40</t>
+          <t>593.79</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>14,316.07</t>
+          <t>14,309.14</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>246.00</t>
+          <t>245.00</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>275.12</t>
+          <t>274.83</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="H16" s="4" t="inlineStr">
         <is>
-          <t>22.51</t>
+          <t>22.42</t>
         </is>
       </c>
       <c r="I16" s="4" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>26,135,025,412.20</t>
+          <t>26,028,785,471.50</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr">
@@ -1624,7 +1624,7 @@
         <v>196.7949923143371</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>49.20500768566291</v>
+        <v>48.20500768566291</v>
       </c>
     </row>
     <row r="17">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>378.00</t>
+          <t>371.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>420.54</t>
+          <t>419.97</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>33.81</t>
+          <t>33.18</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1675,12 +1675,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12,271,116,060.00</t>
+          <t>12,043,873,170.00</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>231.1639385803936</v>
       </c>
       <c r="O17" t="n">
-        <v>146.8360614196064</v>
+        <v>139.8360614196064</v>
       </c>
     </row>
     <row r="18">
@@ -1718,12 +1718,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1,051.00</t>
+          <t>1,052.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1,254.74</t>
+          <t>1,252.07</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>24.50</t>
+          <t>24.53</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>24,426,291,000.00</t>
+          <t>24,449,532,000.00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1770,7 +1770,7 @@
         <v>442.8893558215189</v>
       </c>
       <c r="O18" t="n">
-        <v>608.1106441784812</v>
+        <v>609.1106441784812</v>
       </c>
     </row>
     <row r="19">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>218.00</t>
+          <t>216.60</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>240.85</t>
+          <t>240.56</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="H19" s="4" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>16.31</t>
         </is>
       </c>
       <c r="I19" s="4" t="inlineStr">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>19,785,339,920.00</t>
+          <t>19,658,278,104.00</t>
         </is>
       </c>
       <c r="L19" s="4" t="inlineStr">
@@ -1843,7 +1843,7 @@
         <v>195.1998360655049</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>22.80016393449506</v>
+        <v>21.40016393449505</v>
       </c>
     </row>
     <row r="20">
@@ -1864,12 +1864,12 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>215.20</t>
+          <t>216.00</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>236.78</t>
+          <t>236.61</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
-          <t>15.19</t>
+          <t>15.24</t>
         </is>
       </c>
       <c r="I20" s="5" t="inlineStr">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="J20" s="5" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="K20" s="5" t="inlineStr">
         <is>
-          <t>20,560,012,168.00</t>
+          <t>20,636,443,440.00</t>
         </is>
       </c>
       <c r="L20" s="5" t="inlineStr">
@@ -1916,7 +1916,7 @@
         <v>198.9605790100139</v>
       </c>
       <c r="O20" s="5" t="n">
-        <v>16.23942098998606</v>
+        <v>17.03942098998607</v>
       </c>
     </row>
     <row r="21">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>356.00</t>
+          <t>362.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>442.71</t>
+          <t>442.10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>61.17</t>
+          <t>62.20</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1967,12 +1967,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3,377,996,602.00</t>
+          <t>3,434,929,129.00</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1989,7 +1989,7 @@
         <v>128.6854187544183</v>
       </c>
       <c r="O21" t="n">
-        <v>227.3145812455817</v>
+        <v>233.3145812455817</v>
       </c>
     </row>
     <row r="22">
@@ -2010,12 +2010,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1,330.00</t>
+          <t>1,305.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1,387.81</t>
+          <t>1,387.11</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-580.79</t>
+          <t>-569.87</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2040,12 +2040,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>18.61</t>
+          <t>18.26</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>20,403,410,300.00</t>
+          <t>20,019,887,550.00</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1330</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="23">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>450.00</t>
+          <t>445.50</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>495.68</t>
+          <t>494.95</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>37.85</t>
+          <t>37.47</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>30,383,076,060.00</t>
+          <t>30,079,245,299.40</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2135,7 +2135,7 @@
         <v>199.3644633579415</v>
       </c>
       <c r="O23" t="n">
-        <v>250.6355366420585</v>
+        <v>246.1355366420585</v>
       </c>
     </row>
     <row r="24">
@@ -2156,12 +2156,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>784.00</t>
+          <t>780.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>898.33</t>
+          <t>898.38</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>45.96</t>
+          <t>45.72</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>6,580,974,400.00</t>
+          <t>6,547,398,000.00</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2208,7 +2208,7 @@
         <v>232.0649801241023</v>
       </c>
       <c r="O24" t="n">
-        <v>551.9350198758978</v>
+        <v>547.9350198758978</v>
       </c>
     </row>
     <row r="25">
@@ -2229,12 +2229,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>357.50</t>
+          <t>350.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>445.49</t>
+          <t>444.02</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>81.25</t>
+          <t>79.55</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2259,12 +2259,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1,383,444,562.50</t>
+          <t>1,354,421,250.00</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2281,7 +2281,7 @@
         <v>101.6544145622806</v>
       </c>
       <c r="O25" t="n">
-        <v>255.8455854377194</v>
+        <v>248.3455854377194</v>
       </c>
     </row>
     <row r="26">
@@ -2302,12 +2302,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2,875.00</t>
+          <t>2,819.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3,188.24</t>
+          <t>3,184.46</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>120.70</t>
+          <t>118.35</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2332,12 +2332,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>20.73</t>
+          <t>20.33</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>94,012,500,000.00</t>
+          <t>92,181,300,000.00</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2354,7 +2354,7 @@
         <v>272.6271189738835</v>
       </c>
       <c r="O26" t="n">
-        <v>2602.372881026116</v>
+        <v>2546.372881026116</v>
       </c>
     </row>
     <row r="27">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1,004.02</t>
+          <t>1,004.71</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>481.70</t>
+          <t>484.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>584.18</t>
+          <t>579.47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>239.65</t>
+          <t>240.80</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2608,12 +2608,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2,408,500,000.00</t>
+          <t>2,420,000,000.00</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2630,7 +2630,7 @@
         <v>78.45747096357363</v>
       </c>
       <c r="O30" t="n">
-        <v>403.2425290364264</v>
+        <v>405.5425290364263</v>
       </c>
     </row>
     <row r="31">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>254.00</t>
+          <t>251.00</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>279.02</t>
+          <t>278.74</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>16.81</t>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>36,070,473,985.40</t>
+          <t>35,644,444,765.10</t>
         </is>
       </c>
       <c r="L31" s="4" t="inlineStr">
@@ -2703,7 +2703,7 @@
         <v>216.9790053207914</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>37.02099467920863</v>
+        <v>34.02099467920863</v>
       </c>
     </row>
     <row r="32">
@@ -2724,12 +2724,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1,100.00</t>
+          <t>1,085.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1,188.52</t>
+          <t>1,187.45</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>22.82</t>
+          <t>22.51</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2754,12 +2754,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>15,262,481,630.00</t>
+          <t>15,054,356,880.50</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2776,7 +2776,7 @@
         <v>463.6728318545308</v>
       </c>
       <c r="O32" t="n">
-        <v>636.3271681454692</v>
+        <v>621.3271681454692</v>
       </c>
     </row>
     <row r="33">
@@ -2797,12 +2797,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>262.50</t>
+          <t>260.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>300.95</t>
+          <t>300.73</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-222.46</t>
+          <t>-220.34</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2827,12 +2827,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>12.15</t>
+          <t>12.04</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>693,000,000.00</t>
+          <t>686,400,000.00</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>262.5</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34">
@@ -2870,12 +2870,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>506.00</t>
+          <t>502.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>557.37</t>
+          <t>556.97</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>23.69</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2900,12 +2900,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>47,904,740,400.00</t>
+          <t>47,526,046,800.00</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2922,7 +2922,7 @@
         <v>329.0726242032296</v>
       </c>
       <c r="O34" t="n">
-        <v>176.9273757967704</v>
+        <v>172.9273757967704</v>
       </c>
     </row>
     <row r="35">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>498.06</t>
+          <t>496.86</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>657.54</t>
+          <t>657.83</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>443.88</t>
+          <t>444.31</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -3132,12 +3132,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>826.90</t>
+          <t>805.20</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805.54</t>
+          <t>805.53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>435.21</t>
+          <t>423.79</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3162,12 +3162,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>4,594,257,061.52</t>
+          <t>4,473,691,844.16</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3184,7 +3184,7 @@
         <v>67.32276732280098</v>
       </c>
       <c r="O38" t="n">
-        <v>759.5772326771989</v>
+        <v>737.8772326771991</v>
       </c>
     </row>
     <row r="39">
@@ -3205,12 +3205,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>728.00</t>
+          <t>713.50</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>814.44</t>
+          <t>814.03</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>31.69</t>
+          <t>31.06</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>7,021,504,672.00</t>
+          <t>6,881,653,274.00</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>263.0054334039508</v>
       </c>
       <c r="O39" t="n">
-        <v>464.9945665960492</v>
+        <v>450.4945665960492</v>
       </c>
     </row>
     <row r="40">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2,248.00</t>
+          <t>2,222.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2,269.14</t>
+          <t>2,262.77</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>20.72</t>
+          <t>20.48</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3308,12 +3308,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>18,983,250,612.00</t>
+          <t>18,763,693,443.00</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3330,7 +3330,7 @@
         <v>860.865995669477</v>
       </c>
       <c r="O40" t="n">
-        <v>1387.134004330523</v>
+        <v>1361.134004330523</v>
       </c>
     </row>
     <row r="41">
@@ -3351,12 +3351,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>422.30</t>
+          <t>420.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>526.79</t>
+          <t>525.79</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>18.49</t>
+          <t>18.39</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>19,340,885,605.20</t>
+          <t>19,235,548,080.00</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3403,7 +3403,7 @@
         <v>268.4860387431719</v>
       </c>
       <c r="O41" t="n">
-        <v>153.8139612568281</v>
+        <v>151.5139612568281</v>
       </c>
     </row>
     <row r="42">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>301.00</t>
+          <t>298.50</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>325.44</t>
+          <t>325.39</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>14.42</t>
+          <t>14.30</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
@@ -3517,12 +3517,12 @@
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K43" s="4" t="inlineStr">
         <is>
-          <t>71,625,216,530.00</t>
+          <t>71,030,322,705.00</t>
         </is>
       </c>
       <c r="L43" s="4" t="inlineStr">
@@ -3539,7 +3539,7 @@
         <v>264.9747346446449</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>36.02526535535509</v>
+        <v>33.52526535535509</v>
       </c>
     </row>
     <row r="44">
@@ -3560,12 +3560,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>852.00</t>
+          <t>859.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>948.18</t>
+          <t>947.66</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>22.03</t>
+          <t>22.21</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3590,12 +3590,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>8,370,900,000.00</t>
+          <t>8,439,675,000.00</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3612,7 +3612,7 @@
         <v>440.1858607452083</v>
       </c>
       <c r="O44" t="n">
-        <v>411.8141392547917</v>
+        <v>418.8141392547917</v>
       </c>
     </row>
     <row r="45">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>498.00</t>
+          <t>488.50</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>615.26</t>
+          <t>614.35</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>31.88</t>
+          <t>31.27</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>4,711,653,696.00</t>
+          <t>4,621,772,752.00</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3685,7 +3685,7 @@
         <v>266.6558906156022</v>
       </c>
       <c r="O45" t="n">
-        <v>231.3441093843978</v>
+        <v>221.8441093843978</v>
       </c>
     </row>
     <row r="46">
@@ -3706,12 +3706,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>253.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>320.70</t>
+          <t>320.08</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>341.10</t>
+          <t>346.58</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1,369,500,000.00</t>
+          <t>1,391,500,000.00</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3758,7 +3758,7 @@
         <v>40.58446747217462</v>
       </c>
       <c r="O46" t="n">
-        <v>208.4155325278254</v>
+        <v>212.4155325278254</v>
       </c>
     </row>
     <row r="47">
@@ -3779,12 +3779,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>547.20</t>
+          <t>545.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>610.09</t>
+          <t>609.76</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>48.08</t>
+          <t>47.89</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3809,12 +3809,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>5,472,000,000.00</t>
+          <t>5,450,000,000.00</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3831,7 +3831,7 @@
         <v>170.1290451392707</v>
       </c>
       <c r="O47" t="n">
-        <v>377.0709548607293</v>
+        <v>374.8709548607293</v>
       </c>
     </row>
     <row r="48">
@@ -3852,12 +3852,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1,421.00</t>
+          <t>1,404.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1,630.52</t>
+          <t>1,628.10</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>28.75</t>
+          <t>28.41</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3882,12 +3882,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>7,852,294,379.30</t>
+          <t>7,758,354,193.20</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3904,7 +3904,7 @@
         <v>442.5468941253571</v>
       </c>
       <c r="O48" t="n">
-        <v>978.4531058746429</v>
+        <v>961.4531058746429</v>
       </c>
     </row>
     <row r="49">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>11.52</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="F49" s="5" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1,314.21</t>
+          <t>1,315.94</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4063,12 +4063,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>402.50</t>
+          <t>390.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>455.03</t>
+          <t>455.16</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4093,12 +4093,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>7,187,085,120.25</t>
+          <t>6,963,883,719.00</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>402.5</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>558.00</t>
+          <t>557.90</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>620.56</t>
+          <t>620.66</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11,630,115,000.00</t>
+          <t>11,628,030,750.00</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>558</v>
+        <v>557.9</v>
       </c>
     </row>
     <row r="53">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1,233.40</t>
+          <t>1,233.89</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4282,12 +4282,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>344.00</t>
+          <t>337.20</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>432.32</t>
+          <t>431.34</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>60.35</t>
+          <t>59.16</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4312,12 +4312,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>3,269,376,000.00</t>
+          <t>3,204,748,800.00</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4334,7 +4334,7 @@
         <v>138.8009906304706</v>
       </c>
       <c r="O54" t="n">
-        <v>205.1990093695294</v>
+        <v>198.3990093695294</v>
       </c>
     </row>
     <row r="55">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>344.25</t>
+          <t>343.80</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>461.00</t>
+          <t>468.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>685.77</t>
+          <t>680.60</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>31.62</t>
+          <t>32.10</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4458,12 +4458,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>4,001,451,418.00</t>
+          <t>4,062,210,984.00</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4480,7 +4480,7 @@
         <v>247.0300811642177</v>
       </c>
       <c r="O56" t="n">
-        <v>213.9699188357823</v>
+        <v>220.9699188357823</v>
       </c>
     </row>
     <row r="57">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>390.00</t>
+          <t>382.20</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>362.13</t>
+          <t>365.00</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -4544,12 +4544,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>236.00</t>
+          <t>239.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>311.29</t>
+          <t>310.50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-200.00</t>
+          <t>-202.54</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4574,12 +4574,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>3,776,000,000.00</t>
+          <t>3,824,000,000.00</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59">
@@ -4617,12 +4617,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3,580.00</t>
+          <t>3,556.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4,237.60</t>
+          <t>4,196.55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>58.74</t>
+          <t>58.34</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4647,12 +4647,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>23.99</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>54,361,553,784.80</t>
+          <t>53,997,118,787.36</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4669,7 +4669,7 @@
         <v>450.8190047014434</v>
       </c>
       <c r="O59" t="n">
-        <v>3129.180995298557</v>
+        <v>3105.180995298557</v>
       </c>
     </row>
     <row r="60">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>680.92</t>
+          <t>681.27</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4763,12 +4763,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>254.00</t>
+          <t>253.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>297.51</t>
+          <t>297.49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>61.65</t>
+          <t>61.41</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4793,12 +4793,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>55,880,000,000.00</t>
+          <t>55,660,000,000.00</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4815,7 +4815,7 @@
         <v>102.0486060659331</v>
       </c>
       <c r="O61" t="n">
-        <v>151.9513939340669</v>
+        <v>150.9513939340669</v>
       </c>
     </row>
     <row r="62">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>463.30</t>
+          <t>463.34</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4909,12 +4909,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>320.60</t>
+          <t>324.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>460.88</t>
+          <t>459.86</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-10,686.67</t>
+          <t>-10,800.00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>3,173,940,000.00</t>
+          <t>3,207,600,000.00</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>320.6</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64">
@@ -4982,12 +4982,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>506.10</t>
+          <t>505.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>647.04</t>
+          <t>646.22</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>34.50</t>
+          <t>34.42</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5012,12 +5012,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>5,704,330,027.20</t>
+          <t>5,691,931,760.00</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5034,7 +5034,7 @@
         <v>221.3958841080836</v>
       </c>
       <c r="O64" t="n">
-        <v>284.7041158919164</v>
+        <v>283.6041158919164</v>
       </c>
     </row>
     <row r="65">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>849.13</t>
+          <t>843.16</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1,110.00</t>
+          <t>1,100.10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1,292.99</t>
+          <t>1,286.03</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>27.80</t>
+          <t>27.55</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5158,12 +5158,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>4,601,097,408.00</t>
+          <t>4,560,060,593.28</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5180,7 +5180,7 @@
         <v>363.2515378494632</v>
       </c>
       <c r="O66" t="n">
-        <v>746.7484621505369</v>
+        <v>736.8484621505368</v>
       </c>
     </row>
     <row r="67">
@@ -5201,12 +5201,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>944.40</t>
+          <t>1,038.80</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>473.27</t>
+          <t>492.77</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>19.79</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5231,12 +5231,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1,511,040,000.00</t>
+          <t>1,662,080,000.00</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5253,7 +5253,7 @@
         <v>560.9557843538116</v>
       </c>
       <c r="O67" t="n">
-        <v>383.4442156461884</v>
+        <v>477.8442156461883</v>
       </c>
     </row>
     <row r="68">
@@ -5274,12 +5274,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>369.00</t>
+          <t>372.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>414.11</t>
+          <t>413.87</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>22.91</t>
+          <t>23.09</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5304,12 +5304,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>15,748,009,603.20</t>
+          <t>15,876,042,201.60</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5326,7 +5326,7 @@
         <v>215.8950213645511</v>
       </c>
       <c r="O68" t="n">
-        <v>153.1049786354489</v>
+        <v>156.1049786354489</v>
       </c>
     </row>
     <row r="69">
@@ -5347,12 +5347,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2,995.10</t>
+          <t>2,962.20</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4,289.10</t>
+          <t>4,271.47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>38.56</t>
+          <t>38.14</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>30,977,720,280.00</t>
+          <t>30,637,442,160.00</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5399,7 +5399,7 @@
         <v>682.4560156156585</v>
       </c>
       <c r="O69" t="n">
-        <v>2312.643984384341</v>
+        <v>2279.743984384341</v>
       </c>
     </row>
     <row r="70">
@@ -5420,12 +5420,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>416.00</t>
+          <t>408.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>551.26</t>
+          <t>549.37</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>41.07</t>
+          <t>40.28</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5450,12 +5450,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2,872,366,848.00</t>
+          <t>2,817,129,024.00</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5472,7 +5472,7 @@
         <v>177.794595671522</v>
       </c>
       <c r="O70" t="n">
-        <v>238.205404328478</v>
+        <v>230.205404328478</v>
       </c>
     </row>
     <row r="71">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>551.00</t>
+          <t>552.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>628.79</t>
+          <t>628.50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5523,12 +5523,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>13,334,200,000.00</t>
+          <t>13,358,400,000.00</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="72">
@@ -5566,12 +5566,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>239.90</t>
+          <t>234.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>302.66</t>
+          <t>301.83</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>-249.90</t>
+          <t>-243.75</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5596,12 +5596,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>890,988,600.00</t>
+          <t>869,076,000.00</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>239.9</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2,183.50</t>
+          <t>2,139.90</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2,360.64</t>
+          <t>2,354.42</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>38.48</t>
+          <t>37.71</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5669,12 +5669,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>3,229,527,510.00</t>
+          <t>3,165,040,494.00</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5691,7 +5691,7 @@
         <v>500.4019694205849</v>
       </c>
       <c r="O73" t="n">
-        <v>1683.098030579415</v>
+        <v>1639.498030579415</v>
       </c>
     </row>
     <row r="74">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="E74" s="6" t="inlineStr">
         <is>
-          <t>245.79</t>
+          <t>245.48</t>
         </is>
       </c>
       <c r="F74" s="6" t="inlineStr">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="F75" s="5" t="inlineStr">
@@ -5833,76 +5833,76 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="7" t="inlineStr">
         <is>
           <t>KKHC</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="7" t="inlineStr">
         <is>
           <t>HydroPower</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="7" t="inlineStr">
         <is>
           <t>4,657,143.00</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>259.00</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>301.25</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
+      <c r="D76" s="7" t="inlineStr">
+        <is>
+          <t>256.00</t>
+        </is>
+      </c>
+      <c r="E76" s="7" t="inlineStr">
+        <is>
+          <t>300.96</t>
+        </is>
+      </c>
+      <c r="F76" s="7" t="inlineStr">
         <is>
           <t>11.94</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G76" s="7" t="inlineStr">
         <is>
           <t>(FY:078-079,Q:2)</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>21.69</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
+      <c r="H76" s="7" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="I76" s="7" t="inlineStr">
         <is>
           <t>93.57</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>1,206,200,037.00</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="J76" s="7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="K76" s="7" t="inlineStr">
+        <is>
+          <t>1,192,228,608.00</t>
+        </is>
+      </c>
+      <c r="L76" s="7" t="inlineStr">
         <is>
           <t>556.20</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="M76" s="7" t="inlineStr">
         <is>
           <t>124.00</t>
         </is>
       </c>
-      <c r="N76" t="n">
+      <c r="N76" s="7" t="n">
         <v>158.548353823053</v>
       </c>
-      <c r="O76" t="n">
-        <v>100.451646176947</v>
+      <c r="O76" s="7" t="n">
+        <v>97.45164617694704</v>
       </c>
     </row>
     <row r="77">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1,347.00</t>
+          <t>1,454.80</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1,499.55</t>
+          <t>1,501.77</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>58.46</t>
+          <t>63.14</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5953,12 +5953,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>5,291,134,266.60</t>
+          <t>5,714,582,131.44</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5975,7 +5975,7 @@
         <v>317.559997480791</v>
       </c>
       <c r="O77" t="n">
-        <v>1029.440002519209</v>
+        <v>1137.240002519209</v>
       </c>
     </row>
     <row r="78">
@@ -5996,12 +5996,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1,245.00</t>
+          <t>1,258.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1,280.98</t>
+          <t>1,281.63</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>26.39</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6026,12 +6026,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>3,895,293,750.00</t>
+          <t>3,935,967,500.00</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6048,7 +6048,7 @@
         <v>424.149743310072</v>
       </c>
       <c r="O78" t="n">
-        <v>820.850256689928</v>
+        <v>833.850256689928</v>
       </c>
     </row>
     <row r="79">
@@ -6074,7 +6074,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>505.52</t>
+          <t>505.49</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>405.47</t>
+          <t>405.92</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6215,12 +6215,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>435.00</t>
+          <t>438.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>491.82</t>
+          <t>491.78</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>20.32</t>
+          <t>20.46</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6245,12 +6245,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>13,670,210,037.00</t>
+          <t>13,764,487,347.60</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6267,7 +6267,7 @@
         <v>256.6254561613092</v>
       </c>
       <c r="O81" t="n">
-        <v>178.3745438386908</v>
+        <v>181.3745438386908</v>
       </c>
     </row>
     <row r="82">
@@ -6288,12 +6288,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>427.20</t>
+          <t>425.10</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>484.14</t>
+          <t>484.08</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>20.61</t>
+          <t>20.51</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6318,12 +6318,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>14,030,497,602.72</t>
+          <t>13,961,527,460.01</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6340,7 +6340,7 @@
         <v>284.2595064373398</v>
       </c>
       <c r="O82" t="n">
-        <v>142.9404935626602</v>
+        <v>140.8404935626602</v>
       </c>
     </row>
     <row r="83">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="E83" s="7" t="inlineStr">
         <is>
-          <t>277.37</t>
+          <t>277.46</t>
         </is>
       </c>
       <c r="F83" s="7" t="inlineStr">
@@ -6434,12 +6434,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>323.00</t>
+          <t>317.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>365.38</t>
+          <t>365.58</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6454,7 +6454,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>-173.66</t>
+          <t>-170.43</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6464,12 +6464,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>4,845,000,000.00</t>
+          <t>4,755,000,000.00</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6486,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="F85" s="5" t="inlineStr">
@@ -6577,7 +6577,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>729.22</t>
+          <t>730.03</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6645,12 +6645,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1,840.00</t>
+          <t>1,839.30</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2,044.64</t>
+          <t>2,042.76</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6675,12 +6675,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>11.81</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>40,682,400,000.00</t>
+          <t>40,666,923,000.00</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1840</v>
+        <v>1839.3</v>
       </c>
     </row>
     <row r="88">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1,461.52</t>
+          <t>1,462.31</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>300.00</t>
+          <t>310.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>369.16</t>
+          <t>371.56</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-1,153.85</t>
+          <t>-1,192.31</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6886,12 +6886,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>18,000,000,000.00</t>
+          <t>18,600,000,000.00</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91">
@@ -6929,12 +6929,12 @@
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>279.00</t>
+          <t>280.00</t>
         </is>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>306.52</t>
+          <t>306.06</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="H91" s="4" t="inlineStr">
         <is>
-          <t>13.83</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="I91" s="4" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="K91" s="4" t="inlineStr">
         <is>
-          <t>28,617,464,068.20</t>
+          <t>28,720,035,624.00</t>
         </is>
       </c>
       <c r="L91" s="4" t="inlineStr">
@@ -6981,7 +6981,7 @@
         <v>251.7652433319579</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>27.23475666804205</v>
+        <v>28.23475666804205</v>
       </c>
     </row>
     <row r="92">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>505.07</t>
+          <t>504.90</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="E93" s="5" t="inlineStr">
         <is>
-          <t>272.19</t>
+          <t>271.60</t>
         </is>
       </c>
       <c r="F93" s="5" t="inlineStr">
@@ -7148,12 +7148,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1,030.00</t>
+          <t>1,000.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1,120.93</t>
+          <t>1,120.55</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>23.78</t>
+          <t>23.08</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7178,12 +7178,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>20,270,678,100.00</t>
+          <t>19,680,270,000.00</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7200,7 +7200,7 @@
         <v>372.3587987412141</v>
       </c>
       <c r="O94" t="n">
-        <v>657.6412012587859</v>
+        <v>627.6412012587859</v>
       </c>
     </row>
     <row r="95">
@@ -7221,12 +7221,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>973.20</t>
+          <t>962.20</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1,090.81</t>
+          <t>1,089.95</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>21.66</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7251,12 +7251,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>11,678,400,000.00</t>
+          <t>11,546,400,000.00</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>392.479197856396</v>
       </c>
       <c r="O95" t="n">
-        <v>580.720802143604</v>
+        <v>569.720802143604</v>
       </c>
     </row>
     <row r="96">
@@ -7294,12 +7294,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>489.00</t>
+          <t>494.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>651.48</t>
+          <t>645.57</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>43.86</t>
+          <t>44.30</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7324,12 +7324,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>6,609,094,170.00</t>
+          <t>6,676,671,820.00</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -7346,7 +7346,7 @@
         <v>183.3911189234637</v>
       </c>
       <c r="O96" t="n">
-        <v>305.6088810765364</v>
+        <v>310.6088810765364</v>
       </c>
     </row>
     <row r="97">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>444.11</t>
+          <t>443.62</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -7440,12 +7440,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>530.00</t>
+          <t>519.40</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>579.36</t>
+          <t>580.49</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>117.00</t>
+          <t>114.66</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7470,12 +7470,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>1,951,157,900.00</t>
+          <t>1,912,134,742.00</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -7492,7 +7492,7 @@
         <v>102.6002631575573</v>
       </c>
       <c r="O98" t="n">
-        <v>427.3997368424427</v>
+        <v>416.7997368424427</v>
       </c>
     </row>
     <row r="99">
@@ -7518,7 +7518,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1,332.60</t>
+          <t>1,332.75</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -7586,12 +7586,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1,492.90</t>
+          <t>1,515.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1,622.64</t>
+          <t>1,618.63</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>36.71</t>
+          <t>37.25</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7616,12 +7616,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>2,544,458,451.70</t>
+          <t>2,582,125,095.00</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -7638,7 +7638,7 @@
         <v>426.3347830637327</v>
       </c>
       <c r="O100" t="n">
-        <v>1066.565216936267</v>
+        <v>1088.665216936267</v>
       </c>
     </row>
     <row r="101">
@@ -7659,12 +7659,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>417.00</t>
+          <t>416.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>477.18</t>
+          <t>475.30</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>17.57</t>
+          <t>17.52</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>16,725,383,235.90</t>
+          <t>16,685,274,403.20</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7711,7 +7711,7 @@
         <v>288.7018635201373</v>
       </c>
       <c r="O101" t="n">
-        <v>128.2981364798627</v>
+        <v>127.2981364798627</v>
       </c>
     </row>
     <row r="102">
@@ -7732,12 +7732,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1,220.00</t>
+          <t>1,196.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1,389.77</t>
+          <t>1,387.94</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>44.09</t>
+          <t>43.22</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7762,12 +7762,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>1,334,375,000.00</t>
+          <t>1,308,125,000.00</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7784,7 +7784,7 @@
         <v>299.4070377429362</v>
       </c>
       <c r="O102" t="n">
-        <v>920.5929622570638</v>
+        <v>896.5929622570638</v>
       </c>
     </row>
     <row r="103">
@@ -7805,12 +7805,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>3,485.00</t>
+          <t>3,480.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3,641.52</t>
+          <t>3,641.91</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>31.40</t>
+          <t>31.36</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7835,12 +7835,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>13.55</t>
+          <t>13.53</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>5,140,375,000.00</t>
+          <t>5,133,000,000.00</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7857,7 +7857,7 @@
         <v>801.254399207892</v>
       </c>
       <c r="O103" t="n">
-        <v>2683.745600792108</v>
+        <v>2678.745600792108</v>
       </c>
     </row>
     <row r="104">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="E104" s="5" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="F104" s="5" t="inlineStr">
@@ -7943,12 +7943,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1,198.00</t>
+          <t>1,175.10</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1,328.52</t>
+          <t>1,324.29</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>25.71</t>
+          <t>25.22</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7973,12 +7973,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>6,254,582,972.20</t>
+          <t>6,135,025,417.89</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -7995,7 +7995,7 @@
         <v>441.4812170409971</v>
       </c>
       <c r="O105" t="n">
-        <v>756.5187829590029</v>
+        <v>733.6187829590028</v>
       </c>
     </row>
     <row r="106">
@@ -8016,12 +8016,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>479.90</t>
+          <t>475.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>517.72</t>
+          <t>517.49</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>19.74</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8046,12 +8046,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>27,148,810,899.15</t>
+          <t>26,871,609,037.50</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8068,7 +8068,7 @@
         <v>272.7197765106154</v>
       </c>
       <c r="O106" t="n">
-        <v>207.1802234893846</v>
+        <v>202.2802234893846</v>
       </c>
     </row>
     <row r="107">
@@ -8089,12 +8089,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>340.00</t>
+          <t>339.10</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>406.88</t>
+          <t>406.14</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>165.85</t>
+          <t>165.41</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8119,12 +8119,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>1,536,800,000.00</t>
+          <t>1,532,732,000.00</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8141,7 +8141,7 @@
         <v>74.49361549824252</v>
       </c>
       <c r="O107" t="n">
-        <v>265.5063845017575</v>
+        <v>264.6063845017575</v>
       </c>
     </row>
     <row r="108">
@@ -8162,12 +8162,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1,290.00</t>
+          <t>1,265.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1,488.85</t>
+          <t>1,485.39</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -8182,7 +8182,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>35.76</t>
+          <t>35.07</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8192,12 +8192,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>3,639,985,776.00</t>
+          <t>3,569,443,416.00</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -8214,7 +8214,7 @@
         <v>396.8861193717916</v>
       </c>
       <c r="O108" t="n">
-        <v>893.1138806282083</v>
+        <v>868.1138806282083</v>
       </c>
     </row>
     <row r="109">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>509.75</t>
+          <t>509.87</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -8308,12 +8308,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>937.90</t>
+          <t>930.10</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1,075.75</t>
+          <t>1,068.55</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -8328,7 +8328,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>38.82</t>
+          <t>38.50</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8338,12 +8338,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>173,475,737,873.00</t>
+          <t>172,033,035,287.00</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -8360,7 +8360,7 @@
         <v>321.6234506375429</v>
       </c>
       <c r="O110" t="n">
-        <v>616.276549362457</v>
+        <v>608.476549362457</v>
       </c>
     </row>
     <row r="111">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="D111" s="5" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>10.40</t>
         </is>
       </c>
       <c r="E111" s="5" t="inlineStr">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="I111" s="5" t="inlineStr">
         <is>
-          <t>1,187,200,000.00</t>
+          <t>1,164,800,000.00</t>
         </is>
       </c>
       <c r="J111" s="5" t="inlineStr"/>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="5" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="112">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="E112" s="5" t="inlineStr">
         <is>
-          <t>9.33</t>
+          <t>9.32</t>
         </is>
       </c>
       <c r="F112" s="5" t="inlineStr">
@@ -8511,12 +8511,12 @@
       </c>
       <c r="D113" s="6" t="inlineStr">
         <is>
-          <t>317.00</t>
+          <t>317.50</t>
         </is>
       </c>
       <c r="E113" s="6" t="inlineStr">
         <is>
-          <t>348.39</t>
+          <t>348.12</t>
         </is>
       </c>
       <c r="F113" s="6" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="H113" s="6" t="inlineStr">
         <is>
-          <t>15.62</t>
+          <t>15.64</t>
         </is>
       </c>
       <c r="I113" s="6" t="inlineStr">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="K113" s="6" t="inlineStr">
         <is>
-          <t>45,666,718,311.10</t>
+          <t>45,738,747,835.25</t>
         </is>
       </c>
       <c r="L113" s="6" t="inlineStr">
@@ -8563,7 +8563,7 @@
         <v>331.5027149210094</v>
       </c>
       <c r="O113" s="6" t="n">
-        <v>-14.50271492100939</v>
+        <v>-14.00271492100939</v>
       </c>
     </row>
     <row r="114">
@@ -8584,12 +8584,12 @@
       </c>
       <c r="D114" s="6" t="inlineStr">
         <is>
-          <t>229.50</t>
+          <t>230.00</t>
         </is>
       </c>
       <c r="E114" s="6" t="inlineStr">
         <is>
-          <t>259.05</t>
+          <t>258.63</t>
         </is>
       </c>
       <c r="F114" s="6" t="inlineStr">
@@ -8604,7 +8604,7 @@
       </c>
       <c r="H114" s="6" t="inlineStr">
         <is>
-          <t>12.89</t>
+          <t>12.91</t>
         </is>
       </c>
       <c r="I114" s="6" t="inlineStr">
@@ -8614,12 +8614,12 @@
       </c>
       <c r="J114" s="6" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K114" s="6" t="inlineStr">
         <is>
-          <t>25,565,561,032.95</t>
+          <t>25,621,259,423.00</t>
         </is>
       </c>
       <c r="L114" s="6" t="inlineStr">
@@ -8636,7 +8636,7 @@
         <v>239.3902300638019</v>
       </c>
       <c r="O114" s="6" t="n">
-        <v>-9.89023006380188</v>
+        <v>-9.39023006380188</v>
       </c>
     </row>
     <row r="115">
@@ -8657,12 +8657,12 @@
       </c>
       <c r="D115" s="5" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="E115" s="5" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>10.85</t>
         </is>
       </c>
       <c r="F115" s="5" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="I115" s="5" t="inlineStr">
         <is>
-          <t>1,351,250,000.00</t>
+          <t>1,325,000,000.00</t>
         </is>
       </c>
       <c r="J115" s="5" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="5" t="n">
-        <v>10.81</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="116">
@@ -8722,12 +8722,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2,670.10</t>
+          <t>2,670.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1,937.48</t>
+          <t>1,972.36</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>6,808,755,000.00</t>
+          <t>6,808,500,000.00</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8774,7 +8774,7 @@
         <v>768.8002695759153</v>
       </c>
       <c r="O116" t="n">
-        <v>1901.299730424085</v>
+        <v>1901.199730424085</v>
       </c>
     </row>
     <row r="117">
@@ -8795,12 +8795,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>469.00</t>
+          <t>495.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>627.47</t>
+          <t>627.66</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>54.16</t>
+          <t>57.16</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8825,12 +8825,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>2,314,496,240.00</t>
+          <t>2,442,805,200.00</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8847,7 +8847,7 @@
         <v>165.4641154450112</v>
       </c>
       <c r="O117" t="n">
-        <v>303.5358845549888</v>
+        <v>329.5358845549888</v>
       </c>
     </row>
     <row r="118">
@@ -8868,12 +8868,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>559.00</t>
+          <t>556.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>647.79</t>
+          <t>647.32</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>52.84</t>
+          <t>52.55</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8898,12 +8898,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>3,951,752,116.00</t>
+          <t>3,930,544,144.00</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -8920,7 +8920,7 @@
         <v>159.0970034287258</v>
       </c>
       <c r="O118" t="n">
-        <v>399.9029965712742</v>
+        <v>396.9029965712742</v>
       </c>
     </row>
     <row r="119">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>487.54</t>
+          <t>488.78</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -9014,12 +9014,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>264.70</t>
+          <t>266.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>348.24</t>
+          <t>347.33</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>254.52</t>
+          <t>255.77</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -9044,12 +9044,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>4,348,097,832.28</t>
+          <t>4,369,452,298.40</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -9066,7 +9066,7 @@
         <v>52.07294883142302</v>
       </c>
       <c r="O120" t="n">
-        <v>212.627051168577</v>
+        <v>213.927051168577</v>
       </c>
     </row>
     <row r="121">
@@ -9087,12 +9087,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>848.80</t>
+          <t>848.20</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>924.43</t>
+          <t>918.43</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>3,395,200,000.00</t>
+          <t>3,392,800,000.00</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>848.8</v>
+        <v>848.2</v>
       </c>
     </row>
     <row r="122">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="E122" s="5" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>10.67</t>
         </is>
       </c>
       <c r="F122" s="5" t="inlineStr">
@@ -9215,12 +9215,12 @@
       </c>
       <c r="D123" s="5" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="E123" s="5" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="F123" s="5" t="inlineStr">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="I123" s="5" t="inlineStr">
         <is>
-          <t>1,371,000,000.00</t>
+          <t>1,350,000,000.00</t>
         </is>
       </c>
       <c r="J123" s="5" t="inlineStr"/>
@@ -9259,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="5" t="n">
-        <v>9.140000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124">
@@ -9280,12 +9280,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>784.40</t>
+          <t>774.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>804.24</t>
+          <t>804.62</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>18.87</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9310,12 +9310,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>90,708,058,043.84</t>
+          <t>89,505,401,486.40</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -9332,7 +9332,7 @@
         <v>443.2537207965659</v>
       </c>
       <c r="O124" t="n">
-        <v>341.1462792034341</v>
+        <v>330.7462792034341</v>
       </c>
     </row>
     <row r="125">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="E125" s="5" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="F125" s="5" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="E126" s="5" t="inlineStr">
         <is>
-          <t>11.84</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="F126" s="5" t="inlineStr">
@@ -9483,12 +9483,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>715.90</t>
+          <t>710.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>828.45</t>
+          <t>827.75</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>42.84</t>
+          <t>42.49</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>8,893,904,901.00</t>
+          <t>8,820,606,900.00</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -9535,7 +9535,7 @@
         <v>226.5238795359112</v>
       </c>
       <c r="O127" t="n">
-        <v>489.3761204640888</v>
+        <v>483.4761204640888</v>
       </c>
     </row>
     <row r="128">
@@ -9556,12 +9556,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>994.90</t>
+          <t>990.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>1,117.13</t>
+          <t>1,116.19</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -9576,7 +9576,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>27.13</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9586,12 +9586,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>17,305,688,560.00</t>
+          <t>17,220,456,000.00</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -9608,7 +9608,7 @@
         <v>380.429238821098</v>
       </c>
       <c r="O128" t="n">
-        <v>614.470761178902</v>
+        <v>609.570761178902</v>
       </c>
     </row>
     <row r="129">
@@ -9694,12 +9694,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>305.50</t>
+          <t>305.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>342.46</t>
+          <t>342.61</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -9714,7 +9714,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>71.21</t>
+          <t>71.10</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9724,12 +9724,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>65,988,000,000.00</t>
+          <t>65,880,000,000.00</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -9746,7 +9746,7 @@
         <v>101.3946633211038</v>
       </c>
       <c r="O130" t="n">
-        <v>204.1053366788962</v>
+        <v>203.6053366788962</v>
       </c>
     </row>
     <row r="131">
@@ -9767,12 +9767,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>875.00</t>
+          <t>877.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1,120.27</t>
+          <t>1,116.91</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -9787,7 +9787,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>50.96</t>
+          <t>51.08</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9797,12 +9797,12 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>15,311,442,125.00</t>
+          <t>15,346,439,707.00</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -9819,7 +9819,7 @@
         <v>224.6283781048156</v>
       </c>
       <c r="O131" t="n">
-        <v>650.3716218951844</v>
+        <v>652.3716218951844</v>
       </c>
     </row>
     <row r="132">
@@ -9840,12 +9840,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1,000.00</t>
+          <t>1,004.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1,112.46</t>
+          <t>1,112.13</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -9860,7 +9860,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>22.79</t>
+          <t>22.89</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9870,12 +9870,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>6,000,000,000.00</t>
+          <t>6,024,000,000.00</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -9892,7 +9892,7 @@
         <v>450.4586637528465</v>
       </c>
       <c r="O132" t="n">
-        <v>549.5413362471536</v>
+        <v>553.5413362471536</v>
       </c>
     </row>
     <row r="133">
@@ -9913,12 +9913,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>754.80</t>
+          <t>735.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>867.17</t>
+          <t>865.78</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>48.63</t>
+          <t>47.36</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9943,12 +9943,12 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>10,013,284,736.40</t>
+          <t>9,750,615,105.00</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -9965,7 +9965,7 @@
         <v>211.0791984066644</v>
       </c>
       <c r="O133" t="n">
-        <v>543.7208015933355</v>
+        <v>523.9208015933356</v>
       </c>
     </row>
     <row r="134">
@@ -9986,12 +9986,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>942.00</t>
+          <t>945.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1,328.81</t>
+          <t>1,321.28</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -10016,12 +10016,12 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>77,319,044,901.00</t>
+          <t>77,565,283,897.50</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="O134" t="n">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="135">
@@ -10059,12 +10059,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>759.00</t>
+          <t>747.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>961.79</t>
+          <t>959.46</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -10089,12 +10089,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>30,626,850,343.32</t>
+          <t>30,142,631,365.56</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>759</v>
+        <v>747</v>
       </c>
     </row>
     <row r="136">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="E136" s="4" t="inlineStr">
         <is>
-          <t>325.43</t>
+          <t>324.98</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="E137" s="5" t="inlineStr">
         <is>
-          <t>12.72</t>
+          <t>12.73</t>
         </is>
       </c>
       <c r="F137" s="5" t="inlineStr">
@@ -10335,12 +10335,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>870.00</t>
+          <t>879.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1,016.68</t>
+          <t>1,014.81</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -10355,7 +10355,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>39.31</t>
+          <t>39.72</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,12 +10365,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>5,706,008,100.00</t>
+          <t>5,765,035,770.00</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -10387,7 +10387,7 @@
         <v>271.262523213215</v>
       </c>
       <c r="O139" t="n">
-        <v>598.737476786785</v>
+        <v>607.737476786785</v>
       </c>
     </row>
     <row r="140">
@@ -10408,12 +10408,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2,120.00</t>
+          <t>2,100.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2,561.12</t>
+          <t>2,548.46</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>25.27</t>
+          <t>25.03</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10438,12 +10438,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>10.53</t>
+          <t>10.43</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>12,437,510,000.00</t>
+          <t>12,320,175,000.00</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -10460,7 +10460,7 @@
         <v>616.4140816042411</v>
       </c>
       <c r="O140" t="n">
-        <v>1503.585918395759</v>
+        <v>1483.585918395759</v>
       </c>
     </row>
     <row r="141">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1,161.54</t>
+          <t>1,157.99</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -10554,12 +10554,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>570.00</t>
+          <t>559.20</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>676.57</t>
+          <t>676.68</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>220.08</t>
+          <t>215.91</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10584,12 +10584,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>6,972,306,690.00</t>
+          <t>6,840,199,826.40</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -10606,7 +10606,7 @@
         <v>77.66624266693992</v>
       </c>
       <c r="O142" t="n">
-        <v>492.3337573330601</v>
+        <v>481.5337573330601</v>
       </c>
     </row>
     <row r="143">
@@ -10627,12 +10627,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>966.00</t>
+          <t>947.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1,303.98</t>
+          <t>1,300.54</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>31.64</t>
+          <t>31.02</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10657,12 +10657,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>2,930,798,211.60</t>
+          <t>2,873,153,112.20</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -10679,7 +10679,7 @@
         <v>362.673956881384</v>
       </c>
       <c r="O143" t="n">
-        <v>603.326043118616</v>
+        <v>584.326043118616</v>
       </c>
     </row>
     <row r="144">
@@ -10700,12 +10700,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1,037.90</t>
+          <t>1,035.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1,412.07</t>
+          <t>1,408.92</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -10720,7 +10720,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>23.96</t>
+          <t>23.90</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10735,7 +10735,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>186,822,000,000.00</t>
+          <t>186,300,000,000.00</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -10752,7 +10752,7 @@
         <v>723.1003047641454</v>
       </c>
       <c r="O144" t="n">
-        <v>314.7996952358546</v>
+        <v>311.8996952358546</v>
       </c>
     </row>
     <row r="145">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1,180.94</t>
+          <t>1,175.22</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -10846,12 +10846,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>396.00</t>
+          <t>403.90</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>460.13</t>
+          <t>460.68</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>-166.39</t>
+          <t>-169.71</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10876,12 +10876,12 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>5,940,000,000.00</t>
+          <t>6,058,500,000.00</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="O146" t="n">
-        <v>396</v>
+        <v>403.9</v>
       </c>
     </row>
     <row r="147">
@@ -10919,12 +10919,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>510.50</t>
+          <t>510.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>494.93</t>
+          <t>495.47</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>-35.98</t>
+          <t>-35.94</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>5,758,901,645.15</t>
+          <t>5,753,261,193.00</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="O147" t="n">
-        <v>510.5</v>
+        <v>510</v>
       </c>
     </row>
     <row r="148">
@@ -10992,12 +10992,12 @@
       </c>
       <c r="D148" s="4" t="inlineStr">
         <is>
-          <t>297.50</t>
+          <t>293.10</t>
         </is>
       </c>
       <c r="E148" s="4" t="inlineStr">
         <is>
-          <t>334.18</t>
+          <t>333.59</t>
         </is>
       </c>
       <c r="F148" s="4" t="inlineStr">
@@ -11012,7 +11012,7 @@
       </c>
       <c r="H148" s="4" t="inlineStr">
         <is>
-          <t>15.30</t>
+          <t>15.07</t>
         </is>
       </c>
       <c r="I148" s="4" t="inlineStr">
@@ -11022,12 +11022,12 @@
       </c>
       <c r="J148" s="4" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="K148" s="4" t="inlineStr">
         <is>
-          <t>55,502,560,330.00</t>
+          <t>54,681,682,126.80</t>
         </is>
       </c>
       <c r="L148" s="4" t="inlineStr">
@@ -11044,7 +11044,7 @@
         <v>249.8280958979594</v>
       </c>
       <c r="O148" s="4" t="n">
-        <v>47.6719041020406</v>
+        <v>43.27190410204062</v>
       </c>
     </row>
     <row r="149">
@@ -11065,12 +11065,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>403.00</t>
+          <t>402.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>505.44</t>
+          <t>505.08</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>65.21</t>
+          <t>65.05</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11095,12 +11095,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>4,194,906,834.30</t>
+          <t>4,184,497,636.20</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -11117,7 +11117,7 @@
         <v>136.6543632673322</v>
       </c>
       <c r="O149" t="n">
-        <v>266.3456367326678</v>
+        <v>265.3456367326678</v>
       </c>
     </row>
     <row r="150">
@@ -11138,12 +11138,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>815.00</t>
+          <t>821.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>940.61</t>
+          <t>938.90</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.37</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11168,12 +11168,12 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>10,005,631,120.00</t>
+          <t>10,079,292,208.00</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -11190,7 +11190,7 @@
         <v>280.6114751751966</v>
       </c>
       <c r="O150" t="n">
-        <v>534.3885248248034</v>
+        <v>540.3885248248034</v>
       </c>
     </row>
     <row r="151">
@@ -11211,12 +11211,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>548.00</t>
+          <t>537.10</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>684.35</t>
+          <t>683.04</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>45.90</t>
+          <t>44.98</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11241,12 +11241,12 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>6,500,076,189.20</t>
+          <t>6,370,786,352.59</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -11263,7 +11263,7 @@
         <v>183.5887496553098</v>
       </c>
       <c r="O151" t="n">
-        <v>364.4112503446902</v>
+        <v>353.5112503446903</v>
       </c>
     </row>
     <row r="152">
@@ -11284,12 +11284,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>535.00</t>
+          <t>531.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>590.50</t>
+          <t>589.86</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -11314,12 +11314,12 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>10,700,000,000.00</t>
+          <t>10,620,000,000.00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="O152" t="n">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="153">
@@ -11357,12 +11357,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>655.00</t>
+          <t>646.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>727.52</t>
+          <t>727.11</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -11387,12 +11387,12 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>18,206,484,800.00</t>
+          <t>17,956,319,360.00</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="O153" t="n">
-        <v>655</v>
+        <v>646</v>
       </c>
     </row>
     <row r="154">
@@ -11456,76 +11456,76 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="A155" s="7" t="inlineStr">
         <is>
           <t>PMHPL</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="7" t="inlineStr">
         <is>
           <t>HydroPower</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" s="7" t="inlineStr">
         <is>
           <t>11,000,000.00</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>277.00</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>336.72</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
+      <c r="D155" s="7" t="inlineStr">
+        <is>
+          <t>266.10</t>
+        </is>
+      </c>
+      <c r="E155" s="7" t="inlineStr">
+        <is>
+          <t>336.20</t>
+        </is>
+      </c>
+      <c r="F155" s="7" t="inlineStr">
         <is>
           <t>13.94</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="G155" s="7" t="inlineStr">
         <is>
           <t>(FY:078-079,Q:2)</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>19.87</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
+      <c r="H155" s="7" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="I155" s="7" t="inlineStr">
         <is>
           <t>88.95</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>3,047,000,000.00</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="J155" s="7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="K155" s="7" t="inlineStr">
+        <is>
+          <t>2,927,100,000.00</t>
+        </is>
+      </c>
+      <c r="L155" s="7" t="inlineStr">
         <is>
           <t>484.00</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr">
+      <c r="M155" s="7" t="inlineStr">
         <is>
           <t>170.00</t>
         </is>
       </c>
-      <c r="N155" t="n">
+      <c r="N155" s="7" t="n">
         <v>167.0304388427451</v>
       </c>
-      <c r="O155" t="n">
-        <v>109.9695611572549</v>
+      <c r="O155" s="7" t="n">
+        <v>99.06956115725495</v>
       </c>
     </row>
     <row r="156">
@@ -11546,12 +11546,12 @@
       </c>
       <c r="D156" s="7" t="inlineStr">
         <is>
-          <t>343.00</t>
+          <t>349.80</t>
         </is>
       </c>
       <c r="E156" s="7" t="inlineStr">
         <is>
-          <t>458.81</t>
+          <t>457.79</t>
         </is>
       </c>
       <c r="F156" s="7" t="inlineStr">
@@ -11566,7 +11566,7 @@
       </c>
       <c r="H156" s="7" t="inlineStr">
         <is>
-          <t>11.17</t>
+          <t>11.39</t>
         </is>
       </c>
       <c r="I156" s="7" t="inlineStr">
@@ -11576,12 +11576,12 @@
       </c>
       <c r="J156" s="7" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="K156" s="7" t="inlineStr">
         <is>
-          <t>3,301,375,000.00</t>
+          <t>3,366,825,000.00</t>
         </is>
       </c>
       <c r="L156" s="7" t="inlineStr">
@@ -11598,7 +11598,7 @@
         <v>276.5324632841504</v>
       </c>
       <c r="O156" s="7" t="n">
-        <v>66.46753671584958</v>
+        <v>73.26753671584959</v>
       </c>
     </row>
     <row r="157">
@@ -11624,7 +11624,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>797.56</t>
+          <t>797.89</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -11692,12 +11692,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>309.00</t>
+          <t>305.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>359.67</t>
+          <t>359.19</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -11712,7 +11712,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>123.60</t>
+          <t>122.00</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11722,12 +11722,12 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2,645,370,630.00</t>
+          <t>2,611,126,350.00</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -11744,7 +11744,7 @@
         <v>79.10278124061125</v>
       </c>
       <c r="O158" t="n">
-        <v>229.8972187593887</v>
+        <v>225.8972187593887</v>
       </c>
     </row>
     <row r="159">
@@ -11765,12 +11765,12 @@
       </c>
       <c r="D159" s="5" t="inlineStr">
         <is>
-          <t>267.00</t>
+          <t>265.20</t>
         </is>
       </c>
       <c r="E159" s="5" t="inlineStr">
         <is>
-          <t>308.01</t>
+          <t>307.56</t>
         </is>
       </c>
       <c r="F159" s="5" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="H159" s="5" t="inlineStr">
         <is>
-          <t>14.52</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="I159" s="5" t="inlineStr">
@@ -11795,12 +11795,12 @@
       </c>
       <c r="J159" s="5" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K159" s="5" t="inlineStr">
         <is>
-          <t>33,932,239,680.00</t>
+          <t>33,703,483,008.00</t>
         </is>
       </c>
       <c r="L159" s="5" t="inlineStr">
@@ -11817,7 +11817,7 @@
         <v>248.6405492875207</v>
       </c>
       <c r="O159" s="5" t="n">
-        <v>18.35945071247932</v>
+        <v>16.5594507124793</v>
       </c>
     </row>
     <row r="160">
@@ -11903,12 +11903,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>523.00</t>
+          <t>524.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>627.58</t>
+          <t>627.34</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -11923,7 +11923,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>52.83</t>
+          <t>52.93</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11933,12 +11933,12 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>3,380,696,162.60</t>
+          <t>3,387,160,208.80</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -11955,7 +11955,7 @@
         <v>160.6966318875414</v>
       </c>
       <c r="O161" t="n">
-        <v>362.3033681124585</v>
+        <v>363.3033681124585</v>
       </c>
     </row>
     <row r="162">
@@ -11976,12 +11976,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>15,805.10</t>
+          <t>15,900.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>17,639.69</t>
+          <t>17,638.41</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -11996,7 +11996,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>108.44</t>
+          <t>109.09</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12006,12 +12006,12 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>12.07</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>42,142,560,589.00</t>
+          <t>42,395,601,000.00</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -12028,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="O162" t="n">
-        <v>15805.1</v>
+        <v>15900</v>
       </c>
     </row>
     <row r="163">
@@ -12064,7 +12064,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>15,988.06</t>
+          <t>16,019.41</t>
         </is>
       </c>
       <c r="N163" t="n">
@@ -12092,12 +12092,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>335.00</t>
+          <t>340.50</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>381.99</t>
+          <t>381.97</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>-817.07</t>
+          <t>-830.49</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12122,12 +12122,12 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>20,628,931,500.00</t>
+          <t>20,967,615,450.00</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -12144,7 +12144,7 @@
         <v>0</v>
       </c>
       <c r="O164" t="n">
-        <v>335</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="165">
@@ -12165,12 +12165,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>360.00</t>
+          <t>359.90</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>455.32</t>
+          <t>453.90</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -12185,7 +12185,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>74.23</t>
+          <t>74.21</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12200,7 +12200,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>3,790,821,600.00</t>
+          <t>3,789,768,594.00</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -12217,7 +12217,7 @@
         <v>115.2411059474873</v>
       </c>
       <c r="O165" t="n">
-        <v>244.7588940525127</v>
+        <v>244.6588940525127</v>
       </c>
     </row>
     <row r="166">
@@ -12238,12 +12238,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>487.50</t>
+          <t>490.60</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>548.69</t>
+          <t>548.28</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -12268,12 +12268,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>10,237,500,000.00</t>
+          <t>10,302,600,000.00</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -12290,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="O166" t="n">
-        <v>487.5</v>
+        <v>490.6</v>
       </c>
     </row>
     <row r="167">
@@ -12311,12 +12311,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>964.00</t>
+          <t>970.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>1,121.33</t>
+          <t>1,116.73</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -12331,7 +12331,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>35.51</t>
+          <t>35.73</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12341,12 +12341,12 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>11,963,879,392.28</t>
+          <t>12,038,343,371.90</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -12363,7 +12363,7 @@
         <v>393.2545168208497</v>
       </c>
       <c r="O167" t="n">
-        <v>570.7454831791503</v>
+        <v>576.7454831791503</v>
       </c>
     </row>
     <row r="168">
@@ -12449,12 +12449,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>635.00</t>
+          <t>633.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>724.36</t>
+          <t>723.51</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -12469,7 +12469,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>40.65</t>
+          <t>40.52</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12479,12 +12479,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>5,112,738,949.00</t>
+          <t>5,096,635,834.20</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -12501,7 +12501,7 @@
         <v>206.2169973595775</v>
       </c>
       <c r="O169" t="n">
-        <v>428.7830026404225</v>
+        <v>426.7830026404225</v>
       </c>
     </row>
     <row r="170">
@@ -12522,12 +12522,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1,193.00</t>
+          <t>1,210.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>1,103.79</t>
+          <t>1,107.21</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -12542,7 +12542,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>42.05</t>
+          <t>42.65</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12552,12 +12552,12 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>3,101,800,000.00</t>
+          <t>3,146,000,000.00</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -12574,7 +12574,7 @@
         <v>319.1512498017202</v>
       </c>
       <c r="O170" t="n">
-        <v>873.8487501982797</v>
+        <v>890.8487501982797</v>
       </c>
     </row>
     <row r="171">
@@ -12600,7 +12600,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>1,000.08</t>
+          <t>999.99</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -12668,12 +12668,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1,249.50</t>
+          <t>1,250.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>1,365.87</t>
+          <t>1,365.60</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -12688,7 +12688,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>29.50</t>
+          <t>29.51</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12698,12 +12698,12 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>3,373,650,000.00</t>
+          <t>3,375,000,000.00</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -12720,7 +12720,7 @@
         <v>370.1332111551191</v>
       </c>
       <c r="O172" t="n">
-        <v>879.3667888448808</v>
+        <v>879.8667888448808</v>
       </c>
     </row>
     <row r="173">
@@ -12741,12 +12741,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>366.10</t>
+          <t>368.00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>391.83</t>
+          <t>392.37</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -12761,7 +12761,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>20.73</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12771,12 +12771,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>11,022,061,625.26</t>
+          <t>11,079,264,348.80</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -12793,7 +12793,7 @@
         <v>232.3521303969473</v>
       </c>
       <c r="O173" t="n">
-        <v>133.7478696030527</v>
+        <v>135.6478696030527</v>
       </c>
     </row>
     <row r="174">
@@ -12819,7 +12819,7 @@
       </c>
       <c r="E174" s="5" t="inlineStr">
         <is>
-          <t>13.47</t>
+          <t>13.48</t>
         </is>
       </c>
       <c r="F174" s="5" t="inlineStr">
@@ -12879,12 +12879,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>547.00</t>
+          <t>548.10</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>617.76</t>
+          <t>617.95</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -12899,7 +12899,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>27.81</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12909,12 +12909,12 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>19,145,000,000.00</t>
+          <t>19,183,500,000.00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -12931,7 +12931,7 @@
         <v>257.5779847929555</v>
       </c>
       <c r="O175" t="n">
-        <v>289.4220152070445</v>
+        <v>290.5220152070445</v>
       </c>
     </row>
     <row r="176">
@@ -12952,12 +12952,12 @@
       </c>
       <c r="D176" s="7" t="inlineStr">
         <is>
-          <t>312.40</t>
+          <t>311.00</t>
         </is>
       </c>
       <c r="E176" s="7" t="inlineStr">
         <is>
-          <t>345.99</t>
+          <t>345.42</t>
         </is>
       </c>
       <c r="F176" s="7" t="inlineStr">
@@ -12972,7 +12972,7 @@
       </c>
       <c r="H176" s="7" t="inlineStr">
         <is>
-          <t>16.66</t>
+          <t>16.59</t>
         </is>
       </c>
       <c r="I176" s="7" t="inlineStr">
@@ -12982,12 +12982,12 @@
       </c>
       <c r="J176" s="7" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K176" s="7" t="inlineStr">
         <is>
-          <t>35,386,726,747.68</t>
+          <t>35,228,143,465.20</t>
         </is>
       </c>
       <c r="L176" s="7" t="inlineStr">
@@ -13004,7 +13004,7 @@
         <v>246.7745048622325</v>
       </c>
       <c r="O176" s="7" t="n">
-        <v>65.6254951377675</v>
+        <v>64.22549513776752</v>
       </c>
     </row>
     <row r="177">
@@ -13025,12 +13025,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>289.20</t>
+          <t>285.00</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>338.48</t>
+          <t>338.19</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -13045,7 +13045,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>-37.03</t>
+          <t>-36.49</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13055,12 +13055,12 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2,412,906,739.56</t>
+          <t>2,377,864,525.50</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="O177" t="n">
-        <v>289.2</v>
+        <v>285</v>
       </c>
     </row>
     <row r="178">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="D178" s="5" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="E178" s="5" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="I178" s="5" t="inlineStr">
         <is>
-          <t>1,043,750,000.00</t>
+          <t>1,033,750,000.00</t>
         </is>
       </c>
       <c r="J178" s="5" t="inlineStr"/>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="O178" s="5" t="n">
-        <v>8.35</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="179">
@@ -13168,7 +13168,7 @@
       </c>
       <c r="E179" s="7" t="inlineStr">
         <is>
-          <t>365.34</t>
+          <t>365.59</t>
         </is>
       </c>
       <c r="F179" s="7" t="inlineStr">
@@ -13251,7 +13251,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>971.75</t>
+          <t>969.36</t>
         </is>
       </c>
       <c r="N180" t="n">
@@ -13279,12 +13279,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>399.00</t>
+          <t>395.10</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>424.56</t>
+          <t>423.75</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -13299,7 +13299,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>17.77</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13309,12 +13309,12 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>49,972,463,051.70</t>
+          <t>49,484,010,405.33</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -13331,7 +13331,7 @@
         <v>293.5134443258094</v>
       </c>
       <c r="O181" t="n">
-        <v>105.4865556741906</v>
+        <v>101.5865556741907</v>
       </c>
     </row>
     <row r="182">
@@ -13352,12 +13352,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>440.00</t>
+          <t>436.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>476.15</t>
+          <t>476.05</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13382,12 +13382,12 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>41,489,597,600.00</t>
+          <t>41,112,419,440.00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -13404,7 +13404,7 @@
         <v>310.3353113972047</v>
       </c>
       <c r="O182" t="n">
-        <v>129.6646886027953</v>
+        <v>125.6646886027953</v>
       </c>
     </row>
     <row r="183">
@@ -13430,7 +13430,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>1,287.41</t>
+          <t>1,288.53</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="E184" s="5" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="F184" s="5" t="inlineStr">
@@ -13563,12 +13563,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>280.00</t>
+          <t>275.10</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>358.23</t>
+          <t>357.24</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>608.70</t>
+          <t>598.04</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13593,12 +13593,12 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2,292,952,200.00</t>
+          <t>2,252,825,536.50</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -13615,7 +13615,7 @@
         <v>28.71017241327541</v>
       </c>
       <c r="O185" t="n">
-        <v>251.2898275867246</v>
+        <v>246.3898275867246</v>
       </c>
     </row>
     <row r="186">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="E186" s="5" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="F186" s="5" t="inlineStr">
@@ -13701,12 +13701,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>541.00</t>
+          <t>533.10</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>605.61</t>
+          <t>605.33</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -13721,7 +13721,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>46.56</t>
+          <t>45.88</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13731,12 +13731,12 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>5,410,000,000.00</t>
+          <t>5,331,000,000.00</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -13753,7 +13753,7 @@
         <v>170.4934338911619</v>
       </c>
       <c r="O187" t="n">
-        <v>370.5065661088381</v>
+        <v>362.6065661088381</v>
       </c>
     </row>
     <row r="188">
@@ -13774,12 +13774,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>353.00</t>
+          <t>342.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>438.17</t>
+          <t>437.67</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>139.53</t>
+          <t>135.18</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13804,12 +13804,12 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>5,118,500,000.00</t>
+          <t>4,959,000,000.00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -13826,7 +13826,7 @@
         <v>77.09804472228851</v>
       </c>
       <c r="O188" t="n">
-        <v>275.9019552777115</v>
+        <v>264.9019552777115</v>
       </c>
     </row>
     <row r="189">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>405.29</t>
+          <t>405.48</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -13920,12 +13920,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>934.00</t>
+          <t>935.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>1,292.98</t>
+          <t>1,287.12</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -13940,7 +13940,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>48.09</t>
+          <t>48.15</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>41,096,000,000.00</t>
+          <t>41,140,000,000.00</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -13972,7 +13972,7 @@
         <v>298.259367832764</v>
       </c>
       <c r="O190" t="n">
-        <v>635.7406321672361</v>
+        <v>636.7406321672361</v>
       </c>
     </row>
     <row r="191">
@@ -13993,12 +13993,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>228.00</t>
+          <t>226.10</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>221.41</t>
+          <t>221.57</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>196.55</t>
+          <t>194.91</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14023,12 +14023,12 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>12.97</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>1,921,081,784.40</t>
+          <t>1,905,072,769.53</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -14045,7 +14045,7 @@
         <v>21.42050419574665</v>
       </c>
       <c r="O191" t="n">
-        <v>206.5794958042534</v>
+        <v>204.6794958042533</v>
       </c>
     </row>
     <row r="192">
@@ -14066,12 +14066,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>374.00</t>
+          <t>375.00</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>415.25</t>
+          <t>415.03</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -14086,7 +14086,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>15.55</t>
+          <t>15.59</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14096,12 +14096,12 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>11,553,798,740.00</t>
+          <t>11,584,691,250.00</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -14118,7 +14118,7 @@
         <v>259.2967050504113</v>
       </c>
       <c r="O192" t="n">
-        <v>114.7032949495887</v>
+        <v>115.7032949495887</v>
       </c>
     </row>
     <row r="193">
@@ -14144,7 +14144,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>1,332.32</t>
+          <t>1,333.74</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -14212,12 +14212,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>1,133.00</t>
+          <t>1,120.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>1,520.77</t>
+          <t>1,513.97</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -14232,7 +14232,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>53.29</t>
+          <t>52.68</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14242,12 +14242,12 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>25,901,299,996.00</t>
+          <t>25,604,109,440.00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -14264,7 +14264,7 @@
         <v>249.6960932814128</v>
       </c>
       <c r="O194" t="n">
-        <v>883.3039067185872</v>
+        <v>870.3039067185872</v>
       </c>
     </row>
     <row r="195">
@@ -14285,12 +14285,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>375.00</t>
+          <t>380.00</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>432.23</t>
+          <t>432.18</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -14305,7 +14305,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>37.92</t>
+          <t>38.42</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14315,12 +14315,12 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>3,595,031,250.00</t>
+          <t>3,642,965,000.00</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -14337,7 +14337,7 @@
         <v>174.9968299712883</v>
       </c>
       <c r="O195" t="n">
-        <v>200.0031700287117</v>
+        <v>205.0031700287117</v>
       </c>
     </row>
     <row r="196">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="E196" s="5" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="F196" s="5" t="inlineStr">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>936.84</t>
+          <t>937.25</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -14501,7 +14501,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>383.15</t>
+          <t>383.63</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -14574,7 +14574,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>378.71</t>
+          <t>378.66</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -14642,12 +14642,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>1,192.70</t>
+          <t>1,185.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>1,268.21</t>
+          <t>1,267.52</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>28.81</t>
+          <t>28.62</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14672,12 +14672,12 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>18,658,762,557.71</t>
+          <t>18,538,302,700.50</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -14694,7 +14694,7 @@
         <v>478.2278536430098</v>
       </c>
       <c r="O200" t="n">
-        <v>714.4721463569903</v>
+        <v>706.7721463569902</v>
       </c>
     </row>
     <row r="201">
@@ -14720,7 +14720,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>1,067.62</t>
+          <t>1,068.28</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>1,273.50</t>
+          <t>1,276.66</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -14926,12 +14926,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>508.60</t>
+          <t>506.10</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>555.92</t>
+          <t>555.77</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -14956,12 +14956,12 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>10,172,000,000.00</t>
+          <t>10,122,000,000.00</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -14978,7 +14978,7 @@
         <v>0</v>
       </c>
       <c r="O204" t="n">
-        <v>508.6</v>
+        <v>506.1</v>
       </c>
     </row>
     <row r="205">
@@ -14999,12 +14999,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>634.00</t>
+          <t>630.00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>730.03</t>
+          <t>729.65</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -15029,12 +15029,12 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>16,168,787,880.00</t>
+          <t>16,066,776,600.00</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -15051,7 +15051,7 @@
         <v>0</v>
       </c>
       <c r="O205" t="n">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="206">
@@ -15077,7 +15077,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>1,110.37</t>
+          <t>1,110.25</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -15150,7 +15150,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>1,827.86</t>
+          <t>1,828.49</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -15266,7 +15266,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>1,868.31</t>
+          <t>1,868.94</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -15339,7 +15339,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>1,164.91</t>
+          <t>1,161.26</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -15407,12 +15407,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>506.00</t>
+          <t>500.00</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>615.40</t>
+          <t>615.44</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -15427,7 +15427,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>-21.49</t>
+          <t>-21.23</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15437,12 +15437,12 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>2,530,000,000.00</t>
+          <t>2,500,000,000.00</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -15459,7 +15459,7 @@
         <v>0</v>
       </c>
       <c r="O211" t="n">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="212">
@@ -15480,12 +15480,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>363.00</t>
+          <t>360.00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>447.53</t>
+          <t>447.04</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -15500,7 +15500,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>31.32</t>
+          <t>31.06</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15510,12 +15510,12 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>2,927,867,250.00</t>
+          <t>2,903,670,000.00</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -15532,7 +15532,7 @@
         <v>167.018267713445</v>
       </c>
       <c r="O212" t="n">
-        <v>195.981732286555</v>
+        <v>192.981732286555</v>
       </c>
     </row>
     <row r="213">
@@ -15553,12 +15553,12 @@
       </c>
       <c r="D213" s="6" t="inlineStr">
         <is>
-          <t>239.70</t>
+          <t>232.10</t>
         </is>
       </c>
       <c r="E213" s="6" t="inlineStr">
         <is>
-          <t>268.86</t>
+          <t>268.41</t>
         </is>
       </c>
       <c r="F213" s="6" t="inlineStr">
@@ -15573,7 +15573,7 @@
       </c>
       <c r="H213" s="6" t="inlineStr">
         <is>
-          <t>14.24</t>
+          <t>13.79</t>
         </is>
       </c>
       <c r="I213" s="6" t="inlineStr">
@@ -15583,12 +15583,12 @@
       </c>
       <c r="J213" s="6" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="K213" s="6" t="inlineStr">
         <is>
-          <t>24,254,986,041.60</t>
+          <t>23,485,950,188.80</t>
         </is>
       </c>
       <c r="L213" s="6" t="inlineStr">
@@ -15605,7 +15605,7 @@
         <v>243.905396619263</v>
       </c>
       <c r="O213" s="6" t="n">
-        <v>-4.205396619263013</v>
+        <v>-11.80539661926301</v>
       </c>
     </row>
     <row r="214">
@@ -15626,12 +15626,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>299.00</t>
+          <t>293.10</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>347.94</t>
+          <t>347.77</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -15646,7 +15646,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>-12.24</t>
+          <t>-12.00</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15656,12 +15656,12 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>4,414,436,000.00</t>
+          <t>4,327,328,400.00</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -15678,7 +15678,7 @@
         <v>0</v>
       </c>
       <c r="O214" t="n">
-        <v>299</v>
+        <v>293.1</v>
       </c>
     </row>
     <row r="215">
@@ -15699,12 +15699,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>4,200.00</t>
+          <t>4,282.00</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>5,732.34</t>
+          <t>5,715.66</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -15719,7 +15719,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>378.72</t>
+          <t>386.11</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15729,12 +15729,12 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>9,680,281,800.00</t>
+          <t>9,869,277,778.00</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -15751,7 +15751,7 @@
         <v>409.5341606630636</v>
       </c>
       <c r="O215" t="n">
-        <v>3790.465839336936</v>
+        <v>3872.465839336936</v>
       </c>
     </row>
     <row r="216">
@@ -15772,12 +15772,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>1,160.00</t>
+          <t>1,137.10</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>1,258.71</t>
+          <t>1,257.96</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -15792,7 +15792,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>27.68</t>
+          <t>27.14</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15802,12 +15802,12 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>13,017,172,000.00</t>
+          <t>12,760,195,070.00</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -15824,7 +15824,7 @@
         <v>495.509646727488</v>
       </c>
       <c r="O216" t="n">
-        <v>664.490353272512</v>
+        <v>641.5903532725119</v>
       </c>
     </row>
     <row r="217">
@@ -15845,12 +15845,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>482.00</t>
+          <t>475.00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>585.32</t>
+          <t>586.08</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>56.11</t>
+          <t>55.30</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15875,12 +15875,12 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>1,928,000,000.00</t>
+          <t>1,900,000,000.00</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -15897,7 +15897,7 @@
         <v>124.3229735406936</v>
       </c>
       <c r="O217" t="n">
-        <v>357.6770264593064</v>
+        <v>350.6770264593064</v>
       </c>
     </row>
     <row r="218">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>368.04</t>
+          <t>368.12</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -15991,12 +15991,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>567.00</t>
+          <t>578.30</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>665.69</t>
+          <t>664.65</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>48.54</t>
+          <t>49.51</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16021,12 +16021,12 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>5,829,667,200.00</t>
+          <t>5,945,849,280.00</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -16043,7 +16043,7 @@
         <v>174.1241970548608</v>
       </c>
       <c r="O219" t="n">
-        <v>392.8758029451392</v>
+        <v>404.1758029451391</v>
       </c>
     </row>
     <row r="220">
@@ -16064,12 +16064,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>599.00</t>
+          <t>601.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>668.58</t>
+          <t>668.16</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -16094,12 +16094,12 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>12,878,500,000.00</t>
+          <t>12,921,500,000.00</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -16116,7 +16116,7 @@
         <v>0</v>
       </c>
       <c r="O220" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="221">
@@ -16137,12 +16137,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>298.00</t>
+          <t>296.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>377.80</t>
+          <t>377.03</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -16157,7 +16157,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>69.14</t>
+          <t>68.68</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16167,12 +16167,12 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>3,427,000,000.00</t>
+          <t>3,404,000,000.00</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -16189,7 +16189,7 @@
         <v>102.7457955344159</v>
       </c>
       <c r="O221" t="n">
-        <v>195.2542044655841</v>
+        <v>193.2542044655841</v>
       </c>
     </row>
     <row r="222">
@@ -16210,12 +16210,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>859.00</t>
+          <t>850.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>777.74</t>
+          <t>782.02</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -16230,7 +16230,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>37.79</t>
+          <t>37.40</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16240,12 +16240,12 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>3,607,800,000.00</t>
+          <t>3,570,000,000.00</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -16262,7 +16262,7 @@
         <v>238.8716962094923</v>
       </c>
       <c r="O222" t="n">
-        <v>620.1283037905076</v>
+        <v>611.1283037905076</v>
       </c>
     </row>
     <row r="223">
@@ -16283,12 +16283,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>290.00</t>
+          <t>284.20</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>350.39</t>
+          <t>350.09</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -16303,7 +16303,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>55.03</t>
+          <t>53.93</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16313,12 +16313,12 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>2,175,000,000.00</t>
+          <t>2,131,500,000.00</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -16335,7 +16335,7 @@
         <v>104.7291148630599</v>
       </c>
       <c r="O223" t="n">
-        <v>185.2708851369401</v>
+        <v>179.4708851369401</v>
       </c>
     </row>
     <row r="224">
@@ -16361,7 +16361,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>19,021.41</t>
+          <t>19,021.75</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -16429,12 +16429,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>260.00</t>
+          <t>258.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>347.59</t>
+          <t>346.55</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -16449,7 +16449,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>131.98</t>
+          <t>130.96</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16459,12 +16459,12 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>5,460,910,000.00</t>
+          <t>5,418,903,000.00</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -16481,7 +16481,7 @@
         <v>68.98998840411556</v>
       </c>
       <c r="O225" t="n">
-        <v>191.0100115958844</v>
+        <v>189.0100115958844</v>
       </c>
     </row>
     <row r="226">
@@ -16502,12 +16502,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>522.00</t>
+          <t>520.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>637.45</t>
+          <t>636.22</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>-83.65</t>
+          <t>-83.33</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16532,12 +16532,12 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>55,279,800,000.00</t>
+          <t>55,068,000,000.00</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -16554,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="O226" t="n">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="227">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>1,511.22</t>
+          <t>1,506.06</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -16653,7 +16653,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>1,272.70</t>
+          <t>1,272.73</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -16721,12 +16721,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>1,240.00</t>
+          <t>1,215.40</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>1,422.52</t>
+          <t>1,419.23</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -16741,7 +16741,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>270.74</t>
+          <t>265.37</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16751,12 +16751,12 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>943,578,000.00</t>
+          <t>924,858,630.00</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -16773,7 +16773,7 @@
         <v>114.9974195362661</v>
       </c>
       <c r="O229" t="n">
-        <v>1125.002580463734</v>
+        <v>1100.402580463734</v>
       </c>
     </row>
   </sheetData>

--- a/CalculationOfGrahamNumber.xlsx
+++ b/CalculationOfGrahamNumber.xlsx
@@ -472,10 +472,10 @@
     <col width="26" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
     <col width="16" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
     <col width="21" customWidth="1" min="11" max="11"/>
@@ -580,12 +580,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>910.00</t>
+          <t>946.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1,303.93</t>
+          <t>1,304.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>50.92</t>
+          <t>52.94</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -610,12 +610,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3,341,005,031.00</t>
+          <t>3,473,176,658.60</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -632,7 +632,7 @@
         <v>233.4550625923542</v>
       </c>
       <c r="O2" t="n">
-        <v>676.5449374076459</v>
+        <v>712.5449374076459</v>
       </c>
     </row>
     <row r="3">
@@ -653,12 +653,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>368.10</t>
+          <t>370.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>402.95</t>
+          <t>402.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>25.30</t>
+          <t>25.43</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>72,542,093,358.96</t>
+          <t>72,916,529,592.00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -705,7 +705,7 @@
         <v>236.630978529862</v>
       </c>
       <c r="O3" t="n">
-        <v>131.469021470138</v>
+        <v>133.369021470138</v>
       </c>
     </row>
     <row r="4">
@@ -726,12 +726,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>415.00</t>
+          <t>421.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>493.90</t>
+          <t>493.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>47.92</t>
+          <t>48.61</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>7,177,819,250.00</t>
+          <t>7,281,594,950.00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -778,7 +778,7 @@
         <v>144.9438753449072</v>
       </c>
       <c r="O4" t="n">
-        <v>270.0561246550928</v>
+        <v>276.0561246550928</v>
       </c>
     </row>
     <row r="5">
@@ -799,12 +799,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>635.10</t>
+          <t>652.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>698.68</t>
+          <t>698.89</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>68.51</t>
+          <t>70.33</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>6,351,000,000.00</t>
+          <t>6,520,000,000.00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -851,7 +851,7 @@
         <v>152.7045677116438</v>
       </c>
       <c r="O5" t="n">
-        <v>482.3954322883562</v>
+        <v>499.2954322883562</v>
       </c>
     </row>
     <row r="6">
@@ -872,12 +872,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>240.00</t>
+          <t>243.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>293.69</t>
+          <t>293.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>25.74</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1,920,000,000.00</t>
+          <t>1,944,000,000.00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -924,7 +924,7 @@
         <v>123.4921859876162</v>
       </c>
       <c r="O6" t="n">
-        <v>116.5078140123838</v>
+        <v>119.5078140123838</v>
       </c>
     </row>
     <row r="7">
@@ -945,7 +945,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>423.00</t>
+          <t>423.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>19.58</t>
+          <t>19.61</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>7,847,540,415.00</t>
+          <t>7,856,816,467.50</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -997,7 +997,7 @@
         <v>232.3882957465802</v>
       </c>
       <c r="O7" t="n">
-        <v>190.6117042534198</v>
+        <v>191.1117042534198</v>
       </c>
     </row>
     <row r="8">
@@ -1018,12 +1018,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1,399.50</t>
+          <t>1,347.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1,478.05</t>
+          <t>1,477.39</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>29.20</t>
+          <t>28.11</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4,673,126,430.00</t>
+          <t>4,497,821,580.00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1070,7 +1070,7 @@
         <v>422.2964361677707</v>
       </c>
       <c r="O8" t="n">
-        <v>977.2035638322293</v>
+        <v>924.7035638322293</v>
       </c>
     </row>
     <row r="9">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>805.10</t>
+          <t>811.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>976.70</t>
+          <t>976.77</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>20,235,793,195.90</t>
+          <t>20,386,600,249.90</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>805.1</v>
+        <v>811.1</v>
       </c>
     </row>
     <row r="10">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>306.00</t>
+          <t>307.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>459.82</t>
+          <t>459.83</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>30,600.00</t>
+          <t>30,700.00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11,765,441,566,508.13</t>
+          <t>11,803,890,721,954.24</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1216,7 +1216,7 @@
         <v>4.743653655148107</v>
       </c>
       <c r="O10" t="n">
-        <v>301.2563463448519</v>
+        <v>302.2563463448519</v>
       </c>
     </row>
     <row r="11">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>400.00</t>
+          <t>408.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>495.35</t>
+          <t>495.45</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>26.21</t>
+          <t>26.74</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1267,12 +1267,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1,071,630,000.00</t>
+          <t>1,093,062,600.00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1289,7 +1289,7 @@
         <v>193.8990072176751</v>
       </c>
       <c r="O11" t="n">
-        <v>206.1009927823249</v>
+        <v>214.1009927823249</v>
       </c>
     </row>
     <row r="12">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4,140.00</t>
+          <t>4,085.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4,695.74</t>
+          <t>4,688.01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>16.54</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1340,12 +1340,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2,070,000,000.00</t>
+          <t>2,042,500,000.00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>4140</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="13">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>491.10</t>
+          <t>509.70</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>593.79</t>
+          <t>594.08</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1499,12 +1499,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14,125.00</t>
+          <t>14,379.90</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>14,309.14</t>
+          <t>14,310.04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>28.27</t>
+          <t>28.79</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1529,12 +1529,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17,091,250,000.00</t>
+          <t>17,399,679,000.00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>14125</v>
+        <v>14379.9</v>
       </c>
     </row>
     <row r="16">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>245.00</t>
+          <t>246.00</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>274.83</t>
+          <t>274.84</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="H16" s="4" t="inlineStr">
         <is>
-          <t>22.42</t>
+          <t>22.51</t>
         </is>
       </c>
       <c r="I16" s="4" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>26,028,785,471.50</t>
+          <t>26,135,025,412.20</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr">
@@ -1624,7 +1624,7 @@
         <v>196.7949923143371</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>48.20500768566291</v>
+        <v>49.20500768566291</v>
       </c>
     </row>
     <row r="17">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>371.00</t>
+          <t>380.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>419.97</t>
+          <t>420.08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>33.18</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1675,12 +1675,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12,043,873,170.00</t>
+          <t>12,336,042,600.00</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>231.1639385803936</v>
       </c>
       <c r="O17" t="n">
-        <v>139.8360614196064</v>
+        <v>148.8360614196064</v>
       </c>
     </row>
     <row r="18">
@@ -1718,12 +1718,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1,052.00</t>
+          <t>1,054.90</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1,252.07</t>
+          <t>1,252.11</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>24.53</t>
+          <t>24.60</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>24,449,532,000.00</t>
+          <t>24,516,930,900.00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1770,7 +1770,7 @@
         <v>442.8893558215189</v>
       </c>
       <c r="O18" t="n">
-        <v>609.1106441784812</v>
+        <v>612.0106441784812</v>
       </c>
     </row>
     <row r="19">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>216.60</t>
+          <t>220.00</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>240.56</t>
+          <t>240.60</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="H19" s="4" t="inlineStr">
         <is>
-          <t>16.31</t>
+          <t>16.57</t>
         </is>
       </c>
       <c r="I19" s="4" t="inlineStr">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>19,658,278,104.00</t>
+          <t>19,966,856,800.00</t>
         </is>
       </c>
       <c r="L19" s="4" t="inlineStr">
@@ -1843,7 +1843,7 @@
         <v>195.1998360655049</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>21.40016393449505</v>
+        <v>24.80016393449506</v>
       </c>
     </row>
     <row r="20">
@@ -1864,12 +1864,12 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>216.00</t>
+          <t>218.00</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>236.61</t>
+          <t>236.64</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
-          <t>15.24</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="I20" s="5" t="inlineStr">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="J20" s="5" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="K20" s="5" t="inlineStr">
         <is>
-          <t>20,636,443,440.00</t>
+          <t>20,827,521,620.00</t>
         </is>
       </c>
       <c r="L20" s="5" t="inlineStr">
@@ -1916,7 +1916,7 @@
         <v>198.9605790100139</v>
       </c>
       <c r="O20" s="5" t="n">
-        <v>17.03942098998607</v>
+        <v>19.03942098998607</v>
       </c>
     </row>
     <row r="21">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>362.00</t>
+          <t>355.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>442.10</t>
+          <t>442.01</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>62.20</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1967,12 +1967,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3,434,929,129.00</t>
+          <t>3,368,507,847.50</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1989,7 +1989,7 @@
         <v>128.6854187544183</v>
       </c>
       <c r="O21" t="n">
-        <v>233.3145812455817</v>
+        <v>226.3145812455817</v>
       </c>
     </row>
     <row r="22">
@@ -2010,12 +2010,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1,305.00</t>
+          <t>1,310.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1,387.11</t>
+          <t>1,387.17</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-569.87</t>
+          <t>-572.05</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2040,12 +2040,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>18.26</t>
+          <t>18.33</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>20,019,887,550.00</t>
+          <t>20,096,592,100.00</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1305</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="23">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>445.50</t>
+          <t>450.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>494.95</t>
+          <t>495.01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>37.47</t>
+          <t>37.85</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>30,079,245,299.40</t>
+          <t>30,383,076,060.00</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2135,7 +2135,7 @@
         <v>199.3644633579415</v>
       </c>
       <c r="O23" t="n">
-        <v>246.1355366420585</v>
+        <v>250.6355366420585</v>
       </c>
     </row>
     <row r="24">
@@ -2156,12 +2156,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>780.00</t>
+          <t>795.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>898.38</t>
+          <t>898.57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>45.72</t>
+          <t>46.60</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>6,547,398,000.00</t>
+          <t>6,673,309,500.00</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2208,7 +2208,7 @@
         <v>232.0649801241023</v>
       </c>
       <c r="O24" t="n">
-        <v>547.9350198758978</v>
+        <v>562.9350198758978</v>
       </c>
     </row>
     <row r="25">
@@ -2229,12 +2229,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>350.00</t>
+          <t>359.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>444.02</t>
+          <t>444.14</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>79.55</t>
+          <t>81.59</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2259,12 +2259,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1,354,421,250.00</t>
+          <t>1,389,249,225.00</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2281,7 +2281,7 @@
         <v>101.6544145622806</v>
       </c>
       <c r="O25" t="n">
-        <v>248.3455854377194</v>
+        <v>257.3455854377194</v>
       </c>
     </row>
     <row r="26">
@@ -2302,12 +2302,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2,819.00</t>
+          <t>2,866.90</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3,184.46</t>
+          <t>3,185.06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>118.35</t>
+          <t>120.36</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2332,12 +2332,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>20.33</t>
+          <t>20.67</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>92,181,300,000.00</t>
+          <t>93,747,630,000.00</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2354,7 +2354,7 @@
         <v>272.6271189738835</v>
       </c>
       <c r="O26" t="n">
-        <v>2546.372881026116</v>
+        <v>2594.272881026116</v>
       </c>
     </row>
     <row r="27">
@@ -2375,12 +2375,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>888.00</t>
+          <t>887.90</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1,004.71</t>
+          <t>1,003.23</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2,558,541,120.00</t>
+          <t>2,558,252,996.00</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2427,7 +2427,7 @@
         <v>280.2244100716424</v>
       </c>
       <c r="O27" t="n">
-        <v>607.7755899283576</v>
+        <v>607.6755899283576</v>
       </c>
     </row>
     <row r="28">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>738,000,000.00</t>
+          <t>747,020,000.00</t>
         </is>
       </c>
       <c r="J28" s="5" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="5" t="n">
-        <v>9</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
-          <t>560,000,000.00</t>
+          <t>549,360,000.00</t>
         </is>
       </c>
       <c r="J29" s="5" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="5" t="n">
-        <v>10</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="30">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>484.00</t>
+          <t>485.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>579.47</t>
+          <t>579.48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>240.80</t>
+          <t>241.29</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2,420,000,000.00</t>
+          <t>2,425,000,000.00</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2630,7 +2630,7 @@
         <v>78.45747096357363</v>
       </c>
       <c r="O30" t="n">
-        <v>405.5425290364263</v>
+        <v>406.5425290364263</v>
       </c>
     </row>
     <row r="31">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>251.00</t>
+          <t>254.00</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>278.74</t>
+          <t>278.78</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>16.81</t>
+          <t>17.01</t>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>35,644,444,765.10</t>
+          <t>36,070,473,985.40</t>
         </is>
       </c>
       <c r="L31" s="4" t="inlineStr">
@@ -2703,7 +2703,7 @@
         <v>216.9790053207914</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>34.02099467920863</v>
+        <v>37.02099467920863</v>
       </c>
     </row>
     <row r="32">
@@ -2724,12 +2724,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1,085.00</t>
+          <t>1,097.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1,187.45</t>
+          <t>1,187.60</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>22.51</t>
+          <t>22.75</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2754,12 +2754,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>15,054,356,880.50</t>
+          <t>15,220,856,680.10</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2776,7 +2776,7 @@
         <v>463.6728318545308</v>
       </c>
       <c r="O32" t="n">
-        <v>621.3271681454692</v>
+        <v>633.3271681454692</v>
       </c>
     </row>
     <row r="33">
@@ -2943,12 +2943,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>415.00</t>
+          <t>413.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>496.86</t>
+          <t>496.83</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>33.85</t>
+          <t>33.69</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2973,12 +2973,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>4,779,937,377.27</t>
+          <t>4,756,901,534.48</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2995,7 +2995,7 @@
         <v>198.4170153993855</v>
       </c>
       <c r="O35" t="n">
-        <v>216.5829846006145</v>
+        <v>214.5829846006145</v>
       </c>
     </row>
     <row r="36">
@@ -3016,12 +3016,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>544.00</t>
+          <t>540.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>657.83</t>
+          <t>656.34</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>56.84</t>
+          <t>56.43</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3046,12 +3046,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>6,825,134,105.60</t>
+          <t>6,774,949,296.00</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3068,7 +3068,7 @@
         <v>169.1965092725024</v>
       </c>
       <c r="O36" t="n">
-        <v>374.8034907274975</v>
+        <v>370.8034907274975</v>
       </c>
     </row>
     <row r="37">
@@ -3132,12 +3132,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>805.20</t>
+          <t>842.50</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805.53</t>
+          <t>806.59</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>423.79</t>
+          <t>443.42</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3162,12 +3162,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>4,473,691,844.16</t>
+          <t>4,680,930,674.00</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3184,7 +3184,7 @@
         <v>67.32276732280098</v>
       </c>
       <c r="O38" t="n">
-        <v>737.8772326771991</v>
+        <v>775.1772326771991</v>
       </c>
     </row>
     <row r="39">
@@ -3205,12 +3205,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>713.50</t>
+          <t>715.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>814.03</t>
+          <t>814.05</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>31.06</t>
+          <t>31.13</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>6,881,653,274.00</t>
+          <t>6,896,120,660.00</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>263.0054334039508</v>
       </c>
       <c r="O39" t="n">
-        <v>450.4945665960492</v>
+        <v>451.9945665960492</v>
       </c>
     </row>
     <row r="40">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2,222.00</t>
+          <t>2,250.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2,262.77</t>
+          <t>2,263.13</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>20.48</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3308,12 +3308,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>18,763,693,443.00</t>
+          <t>19,000,139,625.00</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3330,7 +3330,7 @@
         <v>860.865995669477</v>
       </c>
       <c r="O40" t="n">
-        <v>1361.134004330523</v>
+        <v>1389.134004330523</v>
       </c>
     </row>
     <row r="41">
@@ -3351,12 +3351,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>420.00</t>
+          <t>424.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>525.79</t>
+          <t>525.84</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>18.39</t>
+          <t>18.56</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>19,235,548,080.00</t>
+          <t>19,418,743,776.00</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3403,7 +3403,7 @@
         <v>268.4860387431719</v>
       </c>
       <c r="O41" t="n">
-        <v>151.5139612568281</v>
+        <v>155.5139612568281</v>
       </c>
     </row>
     <row r="42">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>298.50</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>325.39</t>
+          <t>325.40</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>14.30</t>
+          <t>14.32</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="K43" s="4" t="inlineStr">
         <is>
-          <t>71,030,322,705.00</t>
+          <t>71,149,301,470.00</t>
         </is>
       </c>
       <c r="L43" s="4" t="inlineStr">
@@ -3539,7 +3539,7 @@
         <v>264.9747346446449</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>33.52526535535509</v>
+        <v>34.02526535535509</v>
       </c>
     </row>
     <row r="44">
@@ -3560,12 +3560,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>859.00</t>
+          <t>850.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>947.66</t>
+          <t>947.55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>22.21</t>
+          <t>21.98</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3590,12 +3590,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>8,439,675,000.00</t>
+          <t>8,351,250,000.00</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3612,7 +3612,7 @@
         <v>440.1858607452083</v>
       </c>
       <c r="O44" t="n">
-        <v>418.8141392547917</v>
+        <v>409.8141392547917</v>
       </c>
     </row>
     <row r="45">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>488.50</t>
+          <t>503.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>614.35</t>
+          <t>614.53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>31.27</t>
+          <t>32.20</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>4,621,772,752.00</t>
+          <t>4,758,959,456.00</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3685,7 +3685,7 @@
         <v>266.6558906156022</v>
       </c>
       <c r="O45" t="n">
-        <v>221.8441093843978</v>
+        <v>236.3441093843978</v>
       </c>
     </row>
     <row r="46">
@@ -3779,12 +3779,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>545.00</t>
+          <t>550.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>609.76</t>
+          <t>609.82</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>47.89</t>
+          <t>48.33</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3809,12 +3809,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>5,450,000,000.00</t>
+          <t>5,500,000,000.00</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3831,7 +3831,7 @@
         <v>170.1290451392707</v>
       </c>
       <c r="O47" t="n">
-        <v>374.8709548607293</v>
+        <v>379.8709548607293</v>
       </c>
     </row>
     <row r="48">
@@ -3852,12 +3852,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1,404.00</t>
+          <t>1,410.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1,628.10</t>
+          <t>1,628.18</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>28.41</t>
+          <t>28.53</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3882,12 +3882,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>7,758,354,193.20</t>
+          <t>7,791,509,553.00</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3904,7 +3904,7 @@
         <v>442.5468941253571</v>
       </c>
       <c r="O48" t="n">
-        <v>961.4531058746429</v>
+        <v>967.4531058746429</v>
       </c>
     </row>
     <row r="49">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="D49" s="5" t="inlineStr">
         <is>
-          <t>11.35</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="E49" s="5" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="I49" s="5" t="inlineStr">
         <is>
-          <t>1,135,000,000.00</t>
+          <t>1,114,000,000.00</t>
         </is>
       </c>
       <c r="J49" s="5" t="inlineStr"/>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="5" t="n">
-        <v>11.35</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="50">
@@ -3990,12 +3990,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1,214.00</t>
+          <t>1,260.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1,315.94</t>
+          <t>1,315.22</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>80.08</t>
+          <t>83.11</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4020,12 +4020,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1,183,650,000.00</t>
+          <t>1,228,500,000.00</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4042,7 +4042,7 @@
         <v>209.2289989461308</v>
       </c>
       <c r="O50" t="n">
-        <v>1004.771001053869</v>
+        <v>1050.771001053869</v>
       </c>
     </row>
     <row r="51">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>557.90</t>
+          <t>563.90</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>620.66</t>
+          <t>620.73</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4166,12 +4166,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11,628,030,750.00</t>
+          <t>11,753,085,750.00</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>557.9</v>
+        <v>563.9</v>
       </c>
     </row>
     <row r="53">
@@ -4209,12 +4209,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1,121.00</t>
+          <t>1,078.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1,233.89</t>
+          <t>1,231.92</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>88.13</t>
+          <t>84.75</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4239,12 +4239,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1,698,926,281.30</t>
+          <t>1,633,757,833.40</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4261,7 +4261,7 @@
         <v>201.3673657770792</v>
       </c>
       <c r="O53" t="n">
-        <v>919.6326342229208</v>
+        <v>876.6326342229208</v>
       </c>
     </row>
     <row r="54">
@@ -4282,12 +4282,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>337.20</t>
+          <t>343.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>431.34</t>
+          <t>431.41</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>59.16</t>
+          <t>60.18</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4312,12 +4312,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>3,204,748,800.00</t>
+          <t>3,259,872,000.00</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4334,7 +4334,7 @@
         <v>138.8009906304706</v>
       </c>
       <c r="O54" t="n">
-        <v>198.3990093695294</v>
+        <v>204.1990093695294</v>
       </c>
     </row>
     <row r="55">
@@ -4355,12 +4355,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>292.00</t>
+          <t>296.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>343.80</t>
+          <t>343.85</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>118.70</t>
+          <t>120.33</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4385,12 +4385,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1,515,480,000.00</t>
+          <t>1,536,240,000.00</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4407,7 +4407,7 @@
         <v>77.57709391308751</v>
       </c>
       <c r="O55" t="n">
-        <v>214.4229060869125</v>
+        <v>218.4229060869125</v>
       </c>
     </row>
     <row r="56">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>468.00</t>
+          <t>461.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>680.60</t>
+          <t>680.51</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>32.10</t>
+          <t>31.62</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4458,12 +4458,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>4,062,210,984.00</t>
+          <t>4,001,451,418.00</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4480,7 +4480,7 @@
         <v>247.0300811642177</v>
       </c>
       <c r="O56" t="n">
-        <v>220.9699188357823</v>
+        <v>213.9699188357823</v>
       </c>
     </row>
     <row r="57">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>382.20</t>
+          <t>388.00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>365.00</t>
+          <t>365.83</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -4544,12 +4544,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>239.00</t>
+          <t>242.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>310.50</t>
+          <t>310.54</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-202.54</t>
+          <t>-205.08</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4574,12 +4574,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>3,824,000,000.00</t>
+          <t>3,872,000,000.00</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59">
@@ -4617,12 +4617,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3,556.00</t>
+          <t>3,564.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4,196.55</t>
+          <t>4,196.65</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>58.34</t>
+          <t>58.47</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4647,12 +4647,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>23.99</t>
+          <t>24.05</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>53,997,118,787.36</t>
+          <t>54,118,597,119.84</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4669,7 +4669,7 @@
         <v>450.8190047014434</v>
       </c>
       <c r="O59" t="n">
-        <v>3105.180995298557</v>
+        <v>3113.180995298557</v>
       </c>
     </row>
     <row r="60">
@@ -4690,12 +4690,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>566.20</t>
+          <t>575.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>681.27</t>
+          <t>679.92</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>63.62</t>
+          <t>64.61</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4720,12 +4720,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>6,644,410,282.25</t>
+          <t>6,747,679,110.38</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4742,7 +4742,7 @@
         <v>153.2100029371451</v>
       </c>
       <c r="O60" t="n">
-        <v>412.989997062855</v>
+        <v>421.7899970628549</v>
       </c>
     </row>
     <row r="61">
@@ -4763,12 +4763,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>253.00</t>
+          <t>255.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>297.49</t>
+          <t>297.51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>61.41</t>
+          <t>61.89</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4793,12 +4793,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>55,660,000,000.00</t>
+          <t>56,100,000,000.00</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4815,7 +4815,7 @@
         <v>102.0486060659331</v>
       </c>
       <c r="O61" t="n">
-        <v>150.9513939340669</v>
+        <v>152.9513939340669</v>
       </c>
     </row>
     <row r="62">
@@ -4909,12 +4909,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>324.00</t>
+          <t>332.40</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>459.86</t>
+          <t>459.97</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-10,800.00</t>
+          <t>-11,080.00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>3,207,600,000.00</t>
+          <t>3,290,760,000.00</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>324</v>
+        <v>332.4</v>
       </c>
     </row>
     <row r="64">
@@ -4982,12 +4982,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>505.00</t>
+          <t>509.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>646.22</t>
+          <t>646.27</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>34.42</t>
+          <t>34.70</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5012,12 +5012,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>5,691,931,760.00</t>
+          <t>5,737,016,368.00</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5034,7 +5034,7 @@
         <v>221.3958841080836</v>
       </c>
       <c r="O64" t="n">
-        <v>283.6041158919164</v>
+        <v>287.6041158919164</v>
       </c>
     </row>
     <row r="65">
@@ -5055,12 +5055,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>539.00</t>
+          <t>537.90</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>843.16</t>
+          <t>843.15</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>38.50</t>
+          <t>38.42</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5085,12 +5085,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>9,346,604,043.70</t>
+          <t>9,327,529,341.57</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5107,7 +5107,7 @@
         <v>192.4272589837521</v>
       </c>
       <c r="O65" t="n">
-        <v>346.5727410162479</v>
+        <v>345.4727410162479</v>
       </c>
     </row>
     <row r="66">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1,100.10</t>
+          <t>1,101.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1,286.03</t>
+          <t>1,286.04</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>27.55</t>
+          <t>27.57</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5158,12 +5158,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>4,560,060,593.28</t>
+          <t>4,563,791,212.80</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5180,7 +5180,7 @@
         <v>363.2515378494632</v>
       </c>
       <c r="O66" t="n">
-        <v>736.8484621505368</v>
+        <v>737.7484621505369</v>
       </c>
     </row>
     <row r="67">
@@ -5347,12 +5347,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2,962.20</t>
+          <t>2,995.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4,271.47</t>
+          <t>4,271.88</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>38.14</t>
+          <t>38.56</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>30,637,442,160.00</t>
+          <t>30,976,686,000.00</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5399,7 +5399,7 @@
         <v>682.4560156156585</v>
       </c>
       <c r="O69" t="n">
-        <v>2279.743984384341</v>
+        <v>2312.543984384341</v>
       </c>
     </row>
     <row r="70">
@@ -5420,12 +5420,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>408.00</t>
+          <t>415.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>549.37</t>
+          <t>549.46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>40.28</t>
+          <t>40.97</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5450,12 +5450,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2,817,129,024.00</t>
+          <t>2,865,462,120.00</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5472,7 +5472,7 @@
         <v>177.794595671522</v>
       </c>
       <c r="O70" t="n">
-        <v>230.205404328478</v>
+        <v>237.205404328478</v>
       </c>
     </row>
     <row r="71">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>552.00</t>
+          <t>554.50</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>628.50</t>
+          <t>628.53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5523,12 +5523,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>13,358,400,000.00</t>
+          <t>13,418,900,000.00</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>552</v>
+        <v>554.5</v>
       </c>
     </row>
     <row r="72">
@@ -5566,12 +5566,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>234.00</t>
+          <t>235.30</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>301.83</t>
+          <t>301.84</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>-243.75</t>
+          <t>-245.10</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5596,12 +5596,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>869,076,000.00</t>
+          <t>873,904,200.00</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>234</v>
+        <v>235.3</v>
       </c>
     </row>
     <row r="73">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2,139.90</t>
+          <t>2,111.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2,354.42</t>
+          <t>2,354.06</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>37.71</t>
+          <t>37.20</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5669,12 +5669,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>3,165,040,494.00</t>
+          <t>3,122,295,660.00</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5691,7 +5691,7 @@
         <v>500.4019694205849</v>
       </c>
       <c r="O73" t="n">
-        <v>1639.498030579415</v>
+        <v>1610.598030579415</v>
       </c>
     </row>
     <row r="74">
@@ -5712,12 +5712,12 @@
       </c>
       <c r="D74" s="6" t="inlineStr">
         <is>
-          <t>220.00</t>
+          <t>223.00</t>
         </is>
       </c>
       <c r="E74" s="6" t="inlineStr">
         <is>
-          <t>245.48</t>
+          <t>245.52</t>
         </is>
       </c>
       <c r="F74" s="6" t="inlineStr">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="I74" s="6" t="inlineStr">
@@ -5742,12 +5742,12 @@
       </c>
       <c r="J74" s="6" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="K74" s="6" t="inlineStr">
         <is>
-          <t>32,364,603,304.00</t>
+          <t>32,805,938,803.60</t>
         </is>
       </c>
       <c r="L74" s="6" t="inlineStr">
@@ -5764,7 +5764,7 @@
         <v>224.9600464526979</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>-4.960046452697895</v>
+        <v>-1.960046452697895</v>
       </c>
     </row>
     <row r="75">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="D75" s="5" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="E75" s="5" t="inlineStr">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="I75" s="5" t="inlineStr">
         <is>
-          <t>944,000,000.00</t>
+          <t>930,000,000.00</t>
         </is>
       </c>
       <c r="J75" s="5" t="inlineStr"/>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="5" t="n">
-        <v>9.44</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="76">
@@ -5850,12 +5850,12 @@
       </c>
       <c r="D76" s="7" t="inlineStr">
         <is>
-          <t>256.00</t>
+          <t>258.00</t>
         </is>
       </c>
       <c r="E76" s="7" t="inlineStr">
         <is>
-          <t>300.96</t>
+          <t>300.98</t>
         </is>
       </c>
       <c r="F76" s="7" t="inlineStr">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="H76" s="7" t="inlineStr">
         <is>
-          <t>21.44</t>
+          <t>21.61</t>
         </is>
       </c>
       <c r="I76" s="7" t="inlineStr">
@@ -5880,12 +5880,12 @@
       </c>
       <c r="J76" s="7" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="K76" s="7" t="inlineStr">
         <is>
-          <t>1,192,228,608.00</t>
+          <t>1,201,542,894.00</t>
         </is>
       </c>
       <c r="L76" s="7" t="inlineStr">
@@ -5902,7 +5902,7 @@
         <v>158.548353823053</v>
       </c>
       <c r="O76" s="7" t="n">
-        <v>97.45164617694704</v>
+        <v>99.45164617694704</v>
       </c>
     </row>
     <row r="77">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1,454.80</t>
+          <t>1,425.80</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1,501.77</t>
+          <t>1,501.41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>63.14</t>
+          <t>61.88</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5953,12 +5953,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>5,714,582,131.44</t>
+          <t>5,600,667,585.24</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5975,7 +5975,7 @@
         <v>317.559997480791</v>
       </c>
       <c r="O77" t="n">
-        <v>1137.240002519209</v>
+        <v>1108.240002519209</v>
       </c>
     </row>
     <row r="78">
@@ -5996,12 +5996,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1,258.00</t>
+          <t>1,258.90</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1,281.63</t>
+          <t>1,281.64</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>26.39</t>
+          <t>26.41</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6026,12 +6026,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>3,935,967,500.00</t>
+          <t>3,938,783,375.00</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6048,7 +6048,7 @@
         <v>424.149743310072</v>
       </c>
       <c r="O78" t="n">
-        <v>833.850256689928</v>
+        <v>834.7502566899281</v>
       </c>
     </row>
     <row r="79">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>438.00</t>
+          <t>436.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>505.49</t>
+          <t>504.61</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>24.05</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6099,12 +6099,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>3,022,200,000.00</t>
+          <t>3,008,400,000.00</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6121,7 +6121,7 @@
         <v>230.6839461254294</v>
       </c>
       <c r="O79" t="n">
-        <v>207.3160538745706</v>
+        <v>205.3160538745706</v>
       </c>
     </row>
     <row r="80">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>405.92</t>
+          <t>404.90</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6215,12 +6215,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>438.00</t>
+          <t>443.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>491.78</t>
+          <t>491.84</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>20.46</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6245,12 +6245,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>13,764,487,347.60</t>
+          <t>13,921,616,198.60</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6267,7 +6267,7 @@
         <v>256.6254561613092</v>
       </c>
       <c r="O81" t="n">
-        <v>181.3745438386908</v>
+        <v>186.3745438386908</v>
       </c>
     </row>
     <row r="82">
@@ -6288,12 +6288,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>425.10</t>
+          <t>442.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>484.08</t>
+          <t>484.30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>20.51</t>
+          <t>21.32</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6318,12 +6318,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>13,961,527,460.01</t>
+          <t>14,516,572,894.20</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6340,7 +6340,7 @@
         <v>284.2595064373398</v>
       </c>
       <c r="O82" t="n">
-        <v>140.8404935626602</v>
+        <v>157.7404935626602</v>
       </c>
     </row>
     <row r="83">
@@ -6361,12 +6361,12 @@
       </c>
       <c r="D83" s="7" t="inlineStr">
         <is>
-          <t>240.00</t>
+          <t>237.00</t>
         </is>
       </c>
       <c r="E83" s="7" t="inlineStr">
         <is>
-          <t>277.46</t>
+          <t>276.95</t>
         </is>
       </c>
       <c r="F83" s="7" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="H83" s="7" t="inlineStr">
         <is>
-          <t>24.22</t>
+          <t>23.92</t>
         </is>
       </c>
       <c r="I83" s="7" t="inlineStr">
@@ -6391,12 +6391,12 @@
       </c>
       <c r="J83" s="7" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K83" s="7" t="inlineStr">
         <is>
-          <t>27,723,228,000.00</t>
+          <t>27,376,687,650.00</t>
         </is>
       </c>
       <c r="L83" s="7" t="inlineStr">
@@ -6413,7 +6413,7 @@
         <v>177.8705224313461</v>
       </c>
       <c r="O83" s="7" t="n">
-        <v>62.1294775686539</v>
+        <v>59.1294775686539</v>
       </c>
     </row>
     <row r="84">
@@ -6434,12 +6434,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>317.00</t>
+          <t>320.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>365.58</t>
+          <t>365.62</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6454,7 +6454,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>-170.43</t>
+          <t>-172.04</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6464,12 +6464,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>4,755,000,000.00</t>
+          <t>4,800,000,000.00</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6486,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85">
@@ -6572,12 +6572,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>660.00</t>
+          <t>657.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>730.03</t>
+          <t>729.10</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>38.11</t>
+          <t>37.93</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6602,12 +6602,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>7,912,740,000.00</t>
+          <t>7,876,773,000.00</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6624,7 +6624,7 @@
         <v>221.8625858498904</v>
       </c>
       <c r="O86" t="n">
-        <v>438.1374141501096</v>
+        <v>435.1374141501096</v>
       </c>
     </row>
     <row r="87">
@@ -6645,12 +6645,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1,839.30</t>
+          <t>1,828.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2,042.76</t>
+          <t>2,042.62</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6675,12 +6675,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>40,666,923,000.00</t>
+          <t>40,417,080,000.00</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1839.3</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="88">
@@ -6718,12 +6718,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1,295.00</t>
+          <t>1,320.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1,462.31</t>
+          <t>1,460.51</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>26.90</t>
+          <t>27.42</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6748,12 +6748,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>4,973,499,300.00</t>
+          <t>5,069,512,800.00</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6770,7 +6770,7 @@
         <v>460.2399526334062</v>
       </c>
       <c r="O88" t="n">
-        <v>834.7600473665938</v>
+        <v>859.7600473665938</v>
       </c>
     </row>
     <row r="89">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="D89" s="5" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="E89" s="5" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="I89" s="5" t="inlineStr">
         <is>
-          <t>676,770,673.20</t>
+          <t>665,676,072.00</t>
         </is>
       </c>
       <c r="J89" s="5" t="inlineStr"/>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="5" t="n">
-        <v>10.37</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="90">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>310.00</t>
+          <t>302.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>371.56</t>
+          <t>371.45</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-1,192.31</t>
+          <t>-1,161.54</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6886,12 +6886,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>18,600,000,000.00</t>
+          <t>18,120,000,000.00</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91">
@@ -6929,12 +6929,12 @@
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>280.00</t>
+          <t>276.10</t>
         </is>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>306.06</t>
+          <t>306.01</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="H91" s="4" t="inlineStr">
         <is>
-          <t>13.88</t>
+          <t>13.69</t>
         </is>
       </c>
       <c r="I91" s="4" t="inlineStr">
@@ -6959,12 +6959,12 @@
       </c>
       <c r="J91" s="4" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K91" s="4" t="inlineStr">
         <is>
-          <t>28,720,035,624.00</t>
+          <t>28,320,006,556.38</t>
         </is>
       </c>
       <c r="L91" s="4" t="inlineStr">
@@ -6981,7 +6981,7 @@
         <v>251.7652433319579</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>28.23475666804205</v>
+        <v>24.33475666804208</v>
       </c>
     </row>
     <row r="92">
@@ -7002,12 +7002,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>447.00</t>
+          <t>450.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>504.90</t>
+          <t>504.21</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>28.56</t>
+          <t>28.75</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7032,12 +7032,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>4,038,323,472.90</t>
+          <t>4,065,426,315.00</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7054,7 +7054,7 @@
         <v>221.2678467378394</v>
       </c>
       <c r="O92" t="n">
-        <v>225.7321532621606</v>
+        <v>228.7321532621606</v>
       </c>
     </row>
     <row r="93">
@@ -7221,12 +7221,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>962.20</t>
+          <t>979.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1,089.95</t>
+          <t>1,090.16</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>21.66</t>
+          <t>22.03</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7251,12 +7251,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>11,546,400,000.00</t>
+          <t>11,748,000,000.00</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>392.479197856396</v>
       </c>
       <c r="O95" t="n">
-        <v>569.720802143604</v>
+        <v>586.520802143604</v>
       </c>
     </row>
     <row r="96">
@@ -7294,12 +7294,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>494.00</t>
+          <t>493.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>645.57</t>
+          <t>645.56</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>44.30</t>
+          <t>44.22</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>6,676,671,820.00</t>
+          <t>6,663,156,290.00</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -7346,7 +7346,7 @@
         <v>183.3911189234637</v>
       </c>
       <c r="O96" t="n">
-        <v>310.6088810765364</v>
+        <v>309.6088810765364</v>
       </c>
     </row>
     <row r="97">
@@ -7367,12 +7367,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>360.00</t>
+          <t>356.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>443.62</t>
+          <t>443.57</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>15.65</t>
+          <t>15.47</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7397,12 +7397,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>4,500,000,000.00</t>
+          <t>4,450,000,000.00</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -7419,7 +7419,7 @@
         <v>227.8313158896292</v>
       </c>
       <c r="O97" t="n">
-        <v>132.1686841103708</v>
+        <v>128.1686841103708</v>
       </c>
     </row>
     <row r="98">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>519.40</t>
+          <t>520.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>114.66</t>
+          <t>114.79</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>1,912,134,742.00</t>
+          <t>1,914,343,600.00</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -7492,7 +7492,7 @@
         <v>102.6002631575573</v>
       </c>
       <c r="O98" t="n">
-        <v>416.7997368424427</v>
+        <v>417.3997368424427</v>
       </c>
     </row>
     <row r="99">
@@ -7513,12 +7513,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1,091.20</t>
+          <t>1,065.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1,332.75</t>
+          <t>1,329.36</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>74.43</t>
+          <t>72.65</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7543,12 +7543,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>1,546,726,896.00</t>
+          <t>1,509,589,575.00</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -7565,7 +7565,7 @@
         <v>198.8361662273742</v>
       </c>
       <c r="O99" t="n">
-        <v>892.3638337726259</v>
+        <v>866.1638337726258</v>
       </c>
     </row>
     <row r="100">
@@ -7586,12 +7586,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1,515.00</t>
+          <t>1,455.10</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1,618.63</t>
+          <t>1,617.86</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>35.78</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7616,12 +7616,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>2,582,125,095.00</t>
+          <t>2,480,033,152.30</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -7638,7 +7638,7 @@
         <v>426.3347830637327</v>
       </c>
       <c r="O100" t="n">
-        <v>1088.665216936267</v>
+        <v>1028.765216936267</v>
       </c>
     </row>
     <row r="101">
@@ -7659,12 +7659,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>416.00</t>
+          <t>420.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>475.30</t>
+          <t>475.35</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>17.52</t>
+          <t>17.69</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7689,12 +7689,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>16,685,274,403.20</t>
+          <t>16,845,709,734.00</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7711,7 +7711,7 @@
         <v>288.7018635201373</v>
       </c>
       <c r="O101" t="n">
-        <v>127.2981364798627</v>
+        <v>131.2981364798627</v>
       </c>
     </row>
     <row r="102">
@@ -7732,12 +7732,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1,196.00</t>
+          <t>1,180.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1,387.94</t>
+          <t>1,387.74</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>43.22</t>
+          <t>42.65</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7762,12 +7762,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>1,308,125,000.00</t>
+          <t>1,290,625,000.00</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7784,7 +7784,7 @@
         <v>299.4070377429362</v>
       </c>
       <c r="O102" t="n">
-        <v>896.5929622570638</v>
+        <v>880.5929622570638</v>
       </c>
     </row>
     <row r="103">
@@ -7805,12 +7805,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>3,480.00</t>
+          <t>3,489.90</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3,641.91</t>
+          <t>3,642.04</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>31.36</t>
+          <t>31.45</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7835,12 +7835,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>13.53</t>
+          <t>13.57</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>5,133,000,000.00</t>
+          <t>5,147,602,500.00</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7857,7 +7857,7 @@
         <v>801.254399207892</v>
       </c>
       <c r="O103" t="n">
-        <v>2678.745600792108</v>
+        <v>2688.645600792108</v>
       </c>
     </row>
     <row r="104">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="D104" s="5" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="E104" s="5" t="inlineStr">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="I104" s="5" t="inlineStr">
         <is>
-          <t>1,083,750,000.00</t>
+          <t>1,075,000,000.00</t>
         </is>
       </c>
       <c r="J104" s="5" t="inlineStr"/>
@@ -7922,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="5" t="n">
-        <v>8.67</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="105">
@@ -7943,12 +7943,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1,175.10</t>
+          <t>1,185.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1,324.29</t>
+          <t>1,324.42</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>25.22</t>
+          <t>25.43</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7973,12 +7973,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>6,135,025,417.89</t>
+          <t>6,186,711,871.50</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -7995,7 +7995,7 @@
         <v>441.4812170409971</v>
       </c>
       <c r="O105" t="n">
-        <v>733.6187829590028</v>
+        <v>743.5187829590029</v>
       </c>
     </row>
     <row r="106">
@@ -8016,12 +8016,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>475.00</t>
+          <t>478.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>517.49</t>
+          <t>517.53</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>19.74</t>
+          <t>19.87</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8046,12 +8046,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>26,871,609,037.50</t>
+          <t>27,041,324,463.00</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8068,7 +8068,7 @@
         <v>272.7197765106154</v>
       </c>
       <c r="O106" t="n">
-        <v>202.2802234893846</v>
+        <v>205.2802234893846</v>
       </c>
     </row>
     <row r="107">
@@ -8089,12 +8089,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>339.10</t>
+          <t>344.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>406.14</t>
+          <t>406.20</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>165.41</t>
+          <t>167.80</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8119,12 +8119,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>1,532,732,000.00</t>
+          <t>1,554,880,000.00</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8141,7 +8141,7 @@
         <v>74.49361549824252</v>
       </c>
       <c r="O107" t="n">
-        <v>264.6063845017575</v>
+        <v>269.5063845017575</v>
       </c>
     </row>
     <row r="108">
@@ -8235,12 +8235,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>381.00</t>
+          <t>383.50</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>509.87</t>
+          <t>508.27</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>-314.88</t>
+          <t>-316.94</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8265,12 +8265,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>881,987,758.50</t>
+          <t>887,775,079.75</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>381</v>
+        <v>383.5</v>
       </c>
     </row>
     <row r="110">
@@ -8308,12 +8308,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>930.10</t>
+          <t>934.90</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1,068.55</t>
+          <t>1,068.61</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -8328,7 +8328,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>38.50</t>
+          <t>38.70</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8338,12 +8338,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>172,033,035,287.00</t>
+          <t>172,920,852,263.00</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -8360,7 +8360,7 @@
         <v>321.6234506375429</v>
       </c>
       <c r="O110" t="n">
-        <v>608.476549362457</v>
+        <v>613.276549362457</v>
       </c>
     </row>
     <row r="111">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="D111" s="5" t="inlineStr">
         <is>
-          <t>10.40</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="E111" s="5" t="inlineStr">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="I111" s="5" t="inlineStr">
         <is>
-          <t>1,164,800,000.00</t>
+          <t>1,165,920,000.00</t>
         </is>
       </c>
       <c r="J111" s="5" t="inlineStr"/>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="5" t="n">
-        <v>10.4</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="112">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="D112" s="5" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="E112" s="5" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="I112" s="5" t="inlineStr">
         <is>
-          <t>1,125,000,000.00</t>
+          <t>1,115,000,000.00</t>
         </is>
       </c>
       <c r="J112" s="5" t="inlineStr"/>
@@ -8490,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="5" t="n">
-        <v>9</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="113">
@@ -8511,12 +8511,12 @@
       </c>
       <c r="D113" s="6" t="inlineStr">
         <is>
-          <t>317.50</t>
+          <t>319.00</t>
         </is>
       </c>
       <c r="E113" s="6" t="inlineStr">
         <is>
-          <t>348.12</t>
+          <t>348.14</t>
         </is>
       </c>
       <c r="F113" s="6" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="H113" s="6" t="inlineStr">
         <is>
-          <t>15.64</t>
+          <t>15.71</t>
         </is>
       </c>
       <c r="I113" s="6" t="inlineStr">
@@ -8541,12 +8541,12 @@
       </c>
       <c r="J113" s="6" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K113" s="6" t="inlineStr">
         <is>
-          <t>45,738,747,835.25</t>
+          <t>45,954,836,407.70</t>
         </is>
       </c>
       <c r="L113" s="6" t="inlineStr">
@@ -8563,7 +8563,7 @@
         <v>331.5027149210094</v>
       </c>
       <c r="O113" s="6" t="n">
-        <v>-14.00271492100939</v>
+        <v>-12.50271492100939</v>
       </c>
     </row>
     <row r="114">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="D115" s="5" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="E115" s="5" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="I115" s="5" t="inlineStr">
         <is>
-          <t>1,325,000,000.00</t>
+          <t>1,373,750,000.00</t>
         </is>
       </c>
       <c r="J115" s="5" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="5" t="n">
-        <v>10.6</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="116">
@@ -8722,12 +8722,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2,670.00</t>
+          <t>2,678.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1,972.36</t>
+          <t>1,972.74</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>31.70</t>
+          <t>31.80</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8752,12 +8752,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>6,808,500,000.00</t>
+          <t>6,828,900,000.00</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8774,7 +8774,7 @@
         <v>768.8002695759153</v>
       </c>
       <c r="O116" t="n">
-        <v>1901.199730424085</v>
+        <v>1909.199730424085</v>
       </c>
     </row>
     <row r="117">
@@ -8795,12 +8795,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>495.00</t>
+          <t>499.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>627.66</t>
+          <t>627.71</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>57.16</t>
+          <t>57.62</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8825,12 +8825,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>2,442,805,200.00</t>
+          <t>2,462,545,040.00</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8847,7 +8847,7 @@
         <v>165.4641154450112</v>
       </c>
       <c r="O117" t="n">
-        <v>329.5358845549888</v>
+        <v>333.5358845549888</v>
       </c>
     </row>
     <row r="118">
@@ -8868,12 +8868,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>556.00</t>
+          <t>578.20</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>647.32</t>
+          <t>647.60</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>52.55</t>
+          <t>54.65</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8898,12 +8898,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>3,930,544,144.00</t>
+          <t>4,087,483,136.80</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -8920,7 +8920,7 @@
         <v>159.0970034287258</v>
       </c>
       <c r="O118" t="n">
-        <v>396.9029965712742</v>
+        <v>419.1029965712742</v>
       </c>
     </row>
     <row r="119">
@@ -8941,12 +8941,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>424.00</t>
+          <t>428.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>488.78</t>
+          <t>488.01</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>29.28</t>
+          <t>29.56</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8971,12 +8971,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>1,356,503,200.00</t>
+          <t>1,369,300,400.00</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -8993,7 +8993,7 @@
         <v>186.9540692255721</v>
       </c>
       <c r="O119" t="n">
-        <v>237.0459307744279</v>
+        <v>241.0459307744279</v>
       </c>
     </row>
     <row r="120">
@@ -9014,12 +9014,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>266.00</t>
+          <t>265.10</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>347.33</t>
+          <t>347.32</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>255.77</t>
+          <t>254.90</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -9044,12 +9044,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>4,369,452,298.40</t>
+          <t>4,354,668,437.24</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -9066,7 +9066,7 @@
         <v>52.07294883142302</v>
       </c>
       <c r="O120" t="n">
-        <v>213.927051168577</v>
+        <v>213.027051168577</v>
       </c>
     </row>
     <row r="121">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="D122" s="5" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="E122" s="5" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="I122" s="5" t="inlineStr">
         <is>
-          <t>847,500,000.00</t>
+          <t>828,750,000.00</t>
         </is>
       </c>
       <c r="J122" s="5" t="inlineStr"/>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="5" t="n">
-        <v>11.3</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="123">
@@ -9215,12 +9215,12 @@
       </c>
       <c r="D123" s="5" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="E123" s="5" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="F123" s="5" t="inlineStr">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="I123" s="5" t="inlineStr">
         <is>
-          <t>1,350,000,000.00</t>
+          <t>1,368,000,000.00</t>
         </is>
       </c>
       <c r="J123" s="5" t="inlineStr"/>
@@ -9259,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="5" t="n">
-        <v>9</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="124">
@@ -9280,12 +9280,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>774.00</t>
+          <t>779.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>804.62</t>
+          <t>804.68</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>18.62</t>
+          <t>18.74</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9310,12 +9310,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>89,505,401,486.40</t>
+          <t>90,083,601,754.40</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -9332,7 +9332,7 @@
         <v>443.2537207965659</v>
       </c>
       <c r="O124" t="n">
-        <v>330.7462792034341</v>
+        <v>335.7462792034341</v>
       </c>
     </row>
     <row r="125">
@@ -9418,12 +9418,12 @@
       </c>
       <c r="D126" s="5" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="E126" s="5" t="inlineStr">
         <is>
-          <t>11.85</t>
+          <t>0.00 (FY:078-079,Q:8)</t>
         </is>
       </c>
       <c r="F126" s="5" t="inlineStr">
@@ -9431,21 +9431,13 @@
           <t>0.00</t>
         </is>
       </c>
-      <c r="G126" s="5" t="inlineStr">
-        <is>
-          <t>(FY:078-079,Q:8)</t>
-        </is>
-      </c>
+      <c r="G126" s="5" t="inlineStr"/>
       <c r="H126" s="5" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I126" s="5" t="inlineStr">
-        <is>
-          <t>993,888,000.00</t>
-        </is>
-      </c>
+          <t>989,712,000.00</t>
+        </is>
+      </c>
+      <c r="I126" s="5" t="inlineStr"/>
       <c r="J126" s="5" t="inlineStr"/>
       <c r="K126" s="5" t="inlineStr"/>
       <c r="L126" s="5" t="inlineStr">
@@ -9462,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="O126" s="5" t="n">
-        <v>11.9</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="127">
@@ -9483,12 +9475,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>710.00</t>
+          <t>712.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>827.75</t>
+          <t>827.78</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -9503,7 +9495,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>42.49</t>
+          <t>42.61</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9513,12 +9505,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>8,820,606,900.00</t>
+          <t>8,845,453,680.00</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -9535,7 +9527,7 @@
         <v>226.5238795359112</v>
       </c>
       <c r="O127" t="n">
-        <v>483.4761204640888</v>
+        <v>485.4761204640888</v>
       </c>
     </row>
     <row r="128">
@@ -9629,7 +9621,7 @@
       </c>
       <c r="D129" s="5" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="E129" s="5" t="inlineStr">
@@ -9654,7 +9646,7 @@
       </c>
       <c r="I129" s="5" t="inlineStr">
         <is>
-          <t>1,117,500,000.00</t>
+          <t>1,096,250,000.00</t>
         </is>
       </c>
       <c r="J129" s="5" t="inlineStr"/>
@@ -9673,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="5" t="n">
-        <v>8.94</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="130">
@@ -9840,12 +9832,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1,004.00</t>
+          <t>994.80</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1,112.13</t>
+          <t>1,112.02</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -9860,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>22.89</t>
+          <t>22.68</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9870,12 +9862,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>6,024,000,000.00</t>
+          <t>5,968,800,000.00</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -9892,7 +9884,7 @@
         <v>450.4586637528465</v>
       </c>
       <c r="O132" t="n">
-        <v>553.5413362471536</v>
+        <v>544.3413362471535</v>
       </c>
     </row>
     <row r="133">
@@ -9913,12 +9905,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>735.00</t>
+          <t>736.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>865.78</t>
+          <t>865.79</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -9933,7 +9925,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>47.36</t>
+          <t>47.42</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9943,12 +9935,12 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>9,750,615,105.00</t>
+          <t>9,763,881,248.00</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -9965,7 +9957,7 @@
         <v>211.0791984066644</v>
       </c>
       <c r="O133" t="n">
-        <v>523.9208015933356</v>
+        <v>524.9208015933356</v>
       </c>
     </row>
     <row r="134">
@@ -9986,12 +9978,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>945.00</t>
+          <t>940.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1,321.28</t>
+          <t>1,321.22</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -10016,12 +10008,12 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>77,565,283,897.50</t>
+          <t>77,154,885,570.00</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -10038,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="O134" t="n">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="135">
@@ -10059,12 +10051,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>747.00</t>
+          <t>750.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>959.46</t>
+          <t>959.50</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -10089,12 +10081,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>30,142,631,365.56</t>
+          <t>30,263,686,110.00</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -10111,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="136">
@@ -10132,12 +10124,12 @@
       </c>
       <c r="D136" s="4" t="inlineStr">
         <is>
-          <t>297.00</t>
+          <t>298.00</t>
         </is>
       </c>
       <c r="E136" s="4" t="inlineStr">
         <is>
-          <t>324.98</t>
+          <t>325.00</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr">
@@ -10152,7 +10144,7 @@
       </c>
       <c r="H136" s="4" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>15.40</t>
         </is>
       </c>
       <c r="I136" s="4" t="inlineStr">
@@ -10162,12 +10154,12 @@
       </c>
       <c r="J136" s="4" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K136" s="4" t="inlineStr">
         <is>
-          <t>54,549,116,820.00</t>
+          <t>54,732,783,880.00</t>
         </is>
       </c>
       <c r="L136" s="4" t="inlineStr">
@@ -10184,7 +10176,7 @@
         <v>248.8266037826342</v>
       </c>
       <c r="O136" s="4" t="n">
-        <v>48.17339621736582</v>
+        <v>49.17339621736582</v>
       </c>
     </row>
     <row r="137">
@@ -10205,7 +10197,7 @@
       </c>
       <c r="D137" s="5" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="E137" s="5" t="inlineStr">
@@ -10230,7 +10222,7 @@
       </c>
       <c r="I137" s="5" t="inlineStr">
         <is>
-          <t>1,625,000,000.00</t>
+          <t>1,593,750,000.00</t>
         </is>
       </c>
       <c r="J137" s="5" t="inlineStr"/>
@@ -10249,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="O137" s="5" t="n">
-        <v>13</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="138">
@@ -10270,12 +10262,12 @@
       </c>
       <c r="D138" s="5" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="E138" s="5" t="inlineStr">
         <is>
-          <t>11.74</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="F138" s="5" t="inlineStr">
@@ -10295,7 +10287,7 @@
       </c>
       <c r="I138" s="5" t="inlineStr">
         <is>
-          <t>1,195,000,000.00</t>
+          <t>1,185,000,000.00</t>
         </is>
       </c>
       <c r="J138" s="5" t="inlineStr"/>
@@ -10314,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="O138" s="5" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="139">
@@ -10335,12 +10327,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>879.00</t>
+          <t>852.60</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1,014.81</t>
+          <t>1,014.47</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -10355,7 +10347,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>39.72</t>
+          <t>38.53</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,12 +10357,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>5,765,035,770.00</t>
+          <t>5,591,887,938.00</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -10387,7 +10379,7 @@
         <v>271.262523213215</v>
       </c>
       <c r="O139" t="n">
-        <v>607.737476786785</v>
+        <v>581.337476786785</v>
       </c>
     </row>
     <row r="140">
@@ -10408,12 +10400,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2,100.00</t>
+          <t>2,120.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2,548.46</t>
+          <t>2,548.72</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -10428,7 +10420,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>25.27</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10438,12 +10430,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>10.43</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>12,320,175,000.00</t>
+          <t>12,437,510,000.00</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -10460,7 +10452,7 @@
         <v>616.4140816042411</v>
       </c>
       <c r="O140" t="n">
-        <v>1483.585918395759</v>
+        <v>1503.585918395759</v>
       </c>
     </row>
     <row r="141">
@@ -10554,12 +10546,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>559.20</t>
+          <t>560.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>676.68</t>
+          <t>676.69</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -10574,7 +10566,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>215.91</t>
+          <t>216.22</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10584,12 +10576,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>6,840,199,826.40</t>
+          <t>6,849,985,520.00</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -10606,7 +10598,7 @@
         <v>77.66624266693992</v>
       </c>
       <c r="O142" t="n">
-        <v>481.5337573330601</v>
+        <v>482.3337573330601</v>
       </c>
     </row>
     <row r="143">
@@ -10627,12 +10619,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>947.00</t>
+          <t>936.10</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1,300.54</t>
+          <t>1,300.40</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -10647,7 +10639,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>31.02</t>
+          <t>30.66</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10657,12 +10649,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>2,873,153,112.20</t>
+          <t>2,840,083,028.86</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -10679,7 +10671,7 @@
         <v>362.673956881384</v>
       </c>
       <c r="O143" t="n">
-        <v>584.326043118616</v>
+        <v>573.426043118616</v>
       </c>
     </row>
     <row r="144">
@@ -10773,12 +10765,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1,103.00</t>
+          <t>1,090.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1,175.22</t>
+          <t>1,175.06</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -10793,7 +10785,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>24.51</t>
+          <t>24.22</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10803,12 +10795,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>24,211,125,750.00</t>
+          <t>23,925,772,500.00</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -10825,7 +10817,7 @@
         <v>445.7540184900187</v>
       </c>
       <c r="O145" t="n">
-        <v>657.2459815099812</v>
+        <v>644.2459815099812</v>
       </c>
     </row>
     <row r="146">
@@ -10846,12 +10838,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>403.90</t>
+          <t>395.00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>460.68</t>
+          <t>460.57</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -10866,7 +10858,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>-169.71</t>
+          <t>-165.97</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10876,12 +10868,12 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>6,058,500,000.00</t>
+          <t>5,925,000,000.00</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -10898,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="O146" t="n">
-        <v>403.9</v>
+        <v>395</v>
       </c>
     </row>
     <row r="147">
@@ -10919,12 +10911,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>510.00</t>
+          <t>520.70</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>495.47</t>
+          <t>495.61</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -10939,7 +10931,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>-35.94</t>
+          <t>-36.69</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10949,12 +10941,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>5,753,261,193.00</t>
+          <t>5,873,966,869.01</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -10971,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="O147" t="n">
-        <v>510</v>
+        <v>520.7</v>
       </c>
     </row>
     <row r="148">
@@ -10992,12 +10984,12 @@
       </c>
       <c r="D148" s="4" t="inlineStr">
         <is>
-          <t>293.10</t>
+          <t>296.10</t>
         </is>
       </c>
       <c r="E148" s="4" t="inlineStr">
         <is>
-          <t>333.59</t>
+          <t>333.63</t>
         </is>
       </c>
       <c r="F148" s="4" t="inlineStr">
@@ -11012,7 +11004,7 @@
       </c>
       <c r="H148" s="4" t="inlineStr">
         <is>
-          <t>15.07</t>
+          <t>15.22</t>
         </is>
       </c>
       <c r="I148" s="4" t="inlineStr">
@@ -11022,12 +11014,12 @@
       </c>
       <c r="J148" s="4" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="K148" s="4" t="inlineStr">
         <is>
-          <t>54,681,682,126.80</t>
+          <t>55,241,371,810.80</t>
         </is>
       </c>
       <c r="L148" s="4" t="inlineStr">
@@ -11044,7 +11036,7 @@
         <v>249.8280958979594</v>
       </c>
       <c r="O148" s="4" t="n">
-        <v>43.27190410204062</v>
+        <v>46.27190410204062</v>
       </c>
     </row>
     <row r="149">
@@ -11065,12 +11057,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>402.00</t>
+          <t>405.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>505.08</t>
+          <t>505.12</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -11085,7 +11077,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>65.05</t>
+          <t>65.53</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11095,12 +11087,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>4,184,497,636.20</t>
+          <t>4,215,725,230.50</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -11117,7 +11109,7 @@
         <v>136.6543632673322</v>
       </c>
       <c r="O149" t="n">
-        <v>265.3456367326678</v>
+        <v>268.3456367326678</v>
       </c>
     </row>
     <row r="150">
@@ -11138,12 +11130,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>821.00</t>
+          <t>800.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>938.90</t>
+          <t>938.64</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -11158,7 +11150,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>32.37</t>
+          <t>31.55</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11168,12 +11160,12 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>10,079,292,208.00</t>
+          <t>9,821,478,400.00</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -11190,7 +11182,7 @@
         <v>280.6114751751966</v>
       </c>
       <c r="O150" t="n">
-        <v>540.3885248248034</v>
+        <v>519.3885248248034</v>
       </c>
     </row>
     <row r="151">
@@ -11211,12 +11203,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>537.10</t>
+          <t>549.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>683.04</t>
+          <t>683.19</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -11231,7 +11223,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>44.98</t>
+          <t>45.98</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11241,12 +11233,12 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>6,370,786,352.59</t>
+          <t>6,511,937,642.10</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -11263,7 +11255,7 @@
         <v>183.5887496553098</v>
       </c>
       <c r="O151" t="n">
-        <v>353.5112503446903</v>
+        <v>365.4112503446902</v>
       </c>
     </row>
     <row r="152">
@@ -11284,12 +11276,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>531.00</t>
+          <t>528.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>589.86</t>
+          <t>589.82</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -11314,12 +11306,12 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>10,620,000,000.00</t>
+          <t>10,560,000,000.00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -11336,7 +11328,7 @@
         <v>0</v>
       </c>
       <c r="O152" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="153">
@@ -11357,12 +11349,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>646.00</t>
+          <t>658.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>727.11</t>
+          <t>727.26</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -11387,12 +11379,12 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>17,956,319,360.00</t>
+          <t>18,289,873,280.00</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -11409,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="O153" t="n">
-        <v>646</v>
+        <v>658</v>
       </c>
     </row>
     <row r="154">
@@ -11456,76 +11448,76 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="7" t="inlineStr">
+      <c r="A155" t="inlineStr">
         <is>
           <t>PMHPL</t>
         </is>
       </c>
-      <c r="B155" s="7" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>HydroPower</t>
         </is>
       </c>
-      <c r="C155" s="7" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>11,000,000.00</t>
         </is>
       </c>
-      <c r="D155" s="7" t="inlineStr">
-        <is>
-          <t>266.10</t>
-        </is>
-      </c>
-      <c r="E155" s="7" t="inlineStr">
-        <is>
-          <t>336.20</t>
-        </is>
-      </c>
-      <c r="F155" s="7" t="inlineStr">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>282.00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>336.40</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
         <is>
           <t>13.94</t>
         </is>
       </c>
-      <c r="G155" s="7" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>(FY:078-079,Q:2)</t>
         </is>
       </c>
-      <c r="H155" s="7" t="inlineStr">
-        <is>
-          <t>19.09</t>
-        </is>
-      </c>
-      <c r="I155" s="7" t="inlineStr">
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
         <is>
           <t>88.95</t>
         </is>
       </c>
-      <c r="J155" s="7" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="K155" s="7" t="inlineStr">
-        <is>
-          <t>2,927,100,000.00</t>
-        </is>
-      </c>
-      <c r="L155" s="7" t="inlineStr">
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>3,102,000,000.00</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
         <is>
           <t>484.00</t>
         </is>
       </c>
-      <c r="M155" s="7" t="inlineStr">
+      <c r="M155" t="inlineStr">
         <is>
           <t>170.00</t>
         </is>
       </c>
-      <c r="N155" s="7" t="n">
+      <c r="N155" t="n">
         <v>167.0304388427451</v>
       </c>
-      <c r="O155" s="7" t="n">
-        <v>99.06956115725495</v>
+      <c r="O155" t="n">
+        <v>114.9695611572549</v>
       </c>
     </row>
     <row r="156">
@@ -11546,7 +11538,7 @@
       </c>
       <c r="D156" s="7" t="inlineStr">
         <is>
-          <t>349.80</t>
+          <t>350.00</t>
         </is>
       </c>
       <c r="E156" s="7" t="inlineStr">
@@ -11566,7 +11558,7 @@
       </c>
       <c r="H156" s="7" t="inlineStr">
         <is>
-          <t>11.39</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="I156" s="7" t="inlineStr">
@@ -11581,7 +11573,7 @@
       </c>
       <c r="K156" s="7" t="inlineStr">
         <is>
-          <t>3,366,825,000.00</t>
+          <t>3,368,750,000.00</t>
         </is>
       </c>
       <c r="L156" s="7" t="inlineStr">
@@ -11598,7 +11590,7 @@
         <v>276.5324632841504</v>
       </c>
       <c r="O156" s="7" t="n">
-        <v>73.26753671584959</v>
+        <v>73.46753671584958</v>
       </c>
     </row>
     <row r="157">
@@ -11619,12 +11611,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>673.80</t>
+          <t>661.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>797.89</t>
+          <t>796.15</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -11639,7 +11631,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>47.82</t>
+          <t>46.91</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11649,12 +11641,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>8,690,074,200.36</t>
+          <t>8,524,991,164.20</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -11671,7 +11663,7 @@
         <v>199.0601787148801</v>
       </c>
       <c r="O157" t="n">
-        <v>474.7398212851199</v>
+        <v>461.9398212851199</v>
       </c>
     </row>
     <row r="158">
@@ -11692,12 +11684,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>305.00</t>
+          <t>307.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>359.19</t>
+          <t>359.21</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -11712,7 +11704,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>122.00</t>
+          <t>122.80</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11722,12 +11714,12 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2,611,126,350.00</t>
+          <t>2,628,248,490.00</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -11744,80 +11736,80 @@
         <v>79.10278124061125</v>
       </c>
       <c r="O158" t="n">
-        <v>225.8972187593887</v>
+        <v>227.8972187593887</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="5" t="inlineStr">
+      <c r="A159" s="4" t="inlineStr">
         <is>
           <t>PRVU</t>
         </is>
       </c>
-      <c r="B159" s="5" t="inlineStr">
+      <c r="B159" s="4" t="inlineStr">
         <is>
           <t>CommercialBanks</t>
         </is>
       </c>
-      <c r="C159" s="5" t="inlineStr">
+      <c r="C159" s="4" t="inlineStr">
         <is>
           <t>127,087,040.00</t>
         </is>
       </c>
-      <c r="D159" s="5" t="inlineStr">
-        <is>
-          <t>265.20</t>
-        </is>
-      </c>
-      <c r="E159" s="5" t="inlineStr">
-        <is>
-          <t>307.56</t>
-        </is>
-      </c>
-      <c r="F159" s="5" t="inlineStr">
+      <c r="D159" s="4" t="inlineStr">
+        <is>
+          <t>269.00</t>
+        </is>
+      </c>
+      <c r="E159" s="4" t="inlineStr">
+        <is>
+          <t>307.61</t>
+        </is>
+      </c>
+      <c r="F159" s="4" t="inlineStr">
         <is>
           <t>18.39</t>
         </is>
       </c>
-      <c r="G159" s="5" t="inlineStr">
+      <c r="G159" s="4" t="inlineStr">
         <is>
           <t>(FY:078-079,Q:3)</t>
         </is>
       </c>
-      <c r="H159" s="5" t="inlineStr">
-        <is>
-          <t>14.42</t>
-        </is>
-      </c>
-      <c r="I159" s="5" t="inlineStr">
+      <c r="H159" s="4" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="I159" s="4" t="inlineStr">
         <is>
           <t>149.41</t>
         </is>
       </c>
-      <c r="J159" s="5" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="K159" s="5" t="inlineStr">
-        <is>
-          <t>33,703,483,008.00</t>
-        </is>
-      </c>
-      <c r="L159" s="5" t="inlineStr">
+      <c r="J159" s="4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K159" s="4" t="inlineStr">
+        <is>
+          <t>34,186,413,760.00</t>
+        </is>
+      </c>
+      <c r="L159" s="4" t="inlineStr">
         <is>
           <t>525.00</t>
         </is>
       </c>
-      <c r="M159" s="5" t="inlineStr">
+      <c r="M159" s="4" t="inlineStr">
         <is>
           <t>259.50</t>
         </is>
       </c>
-      <c r="N159" s="5" t="n">
+      <c r="N159" s="4" t="n">
         <v>248.6405492875207</v>
       </c>
-      <c r="O159" s="5" t="n">
-        <v>16.5594507124793</v>
+      <c r="O159" s="4" t="n">
+        <v>20.35945071247932</v>
       </c>
     </row>
     <row r="160">
@@ -11838,7 +11830,7 @@
       </c>
       <c r="D160" s="5" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="E160" s="5" t="inlineStr">
@@ -11863,7 +11855,7 @@
       </c>
       <c r="I160" s="5" t="inlineStr">
         <is>
-          <t>1,103,750,000.00</t>
+          <t>1,106,250,000.00</t>
         </is>
       </c>
       <c r="J160" s="5" t="inlineStr"/>
@@ -11882,7 +11874,7 @@
         <v>0</v>
       </c>
       <c r="O160" s="5" t="n">
-        <v>8.83</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="161">
@@ -11903,12 +11895,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>524.00</t>
+          <t>544.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>627.34</t>
+          <t>627.59</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -11923,7 +11915,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>52.93</t>
+          <t>54.95</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11933,12 +11925,12 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>3,387,160,208.80</t>
+          <t>3,516,441,132.80</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -11955,7 +11947,7 @@
         <v>160.6966318875414</v>
       </c>
       <c r="O161" t="n">
-        <v>363.3033681124585</v>
+        <v>383.3033681124585</v>
       </c>
     </row>
     <row r="162">
@@ -11976,12 +11968,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>15,900.00</t>
+          <t>16,000.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>17,638.41</t>
+          <t>17,639.68</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -11996,7 +11988,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>109.09</t>
+          <t>109.78</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12006,12 +11998,12 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>12.07</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>42,395,601,000.00</t>
+          <t>42,662,240,000.00</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -12028,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="O162" t="n">
-        <v>15900</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="163">
@@ -12044,7 +12036,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>14,640.00</t>
+          <t>14,416.00</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -12064,7 +12056,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>16,019.41</t>
+          <t>15,998.59</t>
         </is>
       </c>
       <c r="N163" t="n">
@@ -12092,12 +12084,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>340.50</t>
+          <t>342.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>381.97</t>
+          <t>381.99</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -12112,7 +12104,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>-830.49</t>
+          <t>-834.15</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12122,12 +12114,12 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>20,967,615,450.00</t>
+          <t>21,059,983,800.00</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -12144,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="O164" t="n">
-        <v>340.5</v>
+        <v>342</v>
       </c>
     </row>
     <row r="165">
@@ -12165,12 +12157,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>359.90</t>
+          <t>364.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>453.90</t>
+          <t>453.95</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -12185,7 +12177,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>74.21</t>
+          <t>75.05</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12195,12 +12187,12 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>3,789,768,594.00</t>
+          <t>3,832,941,840.00</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -12217,7 +12209,7 @@
         <v>115.2411059474873</v>
       </c>
       <c r="O165" t="n">
-        <v>244.6588940525127</v>
+        <v>248.7588940525127</v>
       </c>
     </row>
     <row r="166">
@@ -12238,12 +12230,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>490.60</t>
+          <t>492.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>548.28</t>
+          <t>548.30</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -12268,12 +12260,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>10,302,600,000.00</t>
+          <t>10,332,000,000.00</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -12290,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="O166" t="n">
-        <v>490.6</v>
+        <v>492</v>
       </c>
     </row>
     <row r="167">
@@ -12384,7 +12376,7 @@
       </c>
       <c r="D168" s="5" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="E168" s="5" t="inlineStr">
@@ -12409,7 +12401,7 @@
       </c>
       <c r="I168" s="5" t="inlineStr">
         <is>
-          <t>1,133,750,000.00</t>
+          <t>1,111,250,000.00</t>
         </is>
       </c>
       <c r="J168" s="5" t="inlineStr"/>
@@ -12428,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="O168" s="5" t="n">
-        <v>9.07</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="169">
@@ -12449,12 +12441,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>633.00</t>
+          <t>630.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>723.51</t>
+          <t>723.48</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -12469,7 +12461,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>40.52</t>
+          <t>40.33</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12479,12 +12471,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>5,096,635,834.20</t>
+          <t>5,072,481,162.00</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -12501,7 +12493,7 @@
         <v>206.2169973595775</v>
       </c>
       <c r="O169" t="n">
-        <v>426.7830026404225</v>
+        <v>423.7830026404225</v>
       </c>
     </row>
     <row r="170">
@@ -12522,12 +12514,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1,210.00</t>
+          <t>1,200.00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>1,107.21</t>
+          <t>1,106.89</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -12542,7 +12534,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>42.65</t>
+          <t>42.30</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12552,12 +12544,12 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>3,146,000,000.00</t>
+          <t>3,120,000,000.00</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -12574,7 +12566,7 @@
         <v>319.1512498017202</v>
       </c>
       <c r="O170" t="n">
-        <v>890.8487501982797</v>
+        <v>880.8487501982797</v>
       </c>
     </row>
     <row r="171">
@@ -12595,12 +12587,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>893.00</t>
+          <t>928.00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>999.99</t>
+          <t>1,000.44</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -12615,7 +12607,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>30.47</t>
+          <t>31.66</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12625,12 +12617,12 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>4,004,891,126.50</t>
+          <t>4,161,857,744.00</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -12647,7 +12639,7 @@
         <v>287.0219799945642</v>
       </c>
       <c r="O171" t="n">
-        <v>605.9780200054358</v>
+        <v>640.9780200054358</v>
       </c>
     </row>
     <row r="172">
@@ -12668,12 +12660,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1,250.00</t>
+          <t>1,201.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>1,365.60</t>
+          <t>1,364.98</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -12688,7 +12680,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>29.51</t>
+          <t>28.35</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12698,12 +12690,12 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>3,375,000,000.00</t>
+          <t>3,242,700,000.00</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -12720,7 +12712,7 @@
         <v>370.1332111551191</v>
       </c>
       <c r="O172" t="n">
-        <v>879.8667888448808</v>
+        <v>830.8667888448808</v>
       </c>
     </row>
     <row r="173">
@@ -12741,12 +12733,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>368.00</t>
+          <t>373.40</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>392.37</t>
+          <t>392.44</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -12761,7 +12753,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>20.73</t>
+          <t>21.04</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12771,12 +12763,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>11,079,264,348.80</t>
+          <t>11,241,840,510.44</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -12793,7 +12785,7 @@
         <v>232.3521303969473</v>
       </c>
       <c r="O173" t="n">
-        <v>135.6478696030527</v>
+        <v>141.0478696030527</v>
       </c>
     </row>
     <row r="174">
@@ -12814,7 +12806,7 @@
       </c>
       <c r="D174" s="5" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>13.13</t>
         </is>
       </c>
       <c r="E174" s="5" t="inlineStr">
@@ -12839,7 +12831,7 @@
       </c>
       <c r="I174" s="5" t="inlineStr">
         <is>
-          <t>1,740,700,000.00</t>
+          <t>1,706,900,000.00</t>
         </is>
       </c>
       <c r="J174" s="5" t="inlineStr"/>
@@ -12858,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="O174" s="5" t="n">
-        <v>13.39</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="175">
@@ -12879,12 +12871,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>548.10</t>
+          <t>554.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>617.95</t>
+          <t>618.02</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -12899,7 +12891,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>28.16</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12909,12 +12901,12 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>19,183,500,000.00</t>
+          <t>19,390,000,000.00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -12931,7 +12923,7 @@
         <v>257.5779847929555</v>
       </c>
       <c r="O175" t="n">
-        <v>290.5220152070445</v>
+        <v>296.4220152070445</v>
       </c>
     </row>
     <row r="176">
@@ -12952,12 +12944,12 @@
       </c>
       <c r="D176" s="7" t="inlineStr">
         <is>
-          <t>311.00</t>
+          <t>313.00</t>
         </is>
       </c>
       <c r="E176" s="7" t="inlineStr">
         <is>
-          <t>345.42</t>
+          <t>345.45</t>
         </is>
       </c>
       <c r="F176" s="7" t="inlineStr">
@@ -12972,7 +12964,7 @@
       </c>
       <c r="H176" s="7" t="inlineStr">
         <is>
-          <t>16.59</t>
+          <t>16.69</t>
         </is>
       </c>
       <c r="I176" s="7" t="inlineStr">
@@ -12982,12 +12974,12 @@
       </c>
       <c r="J176" s="7" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K176" s="7" t="inlineStr">
         <is>
-          <t>35,228,143,465.20</t>
+          <t>35,454,691,011.60</t>
         </is>
       </c>
       <c r="L176" s="7" t="inlineStr">
@@ -13004,7 +12996,7 @@
         <v>246.7745048622325</v>
       </c>
       <c r="O176" s="7" t="n">
-        <v>64.22549513776752</v>
+        <v>66.22549513776752</v>
       </c>
     </row>
     <row r="177">
@@ -13025,12 +13017,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>285.00</t>
+          <t>294.00</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>338.19</t>
+          <t>338.30</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -13045,7 +13037,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>-36.49</t>
+          <t>-37.64</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13055,12 +13047,12 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2,377,864,525.50</t>
+          <t>2,452,954,984.20</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -13077,7 +13069,7 @@
         <v>0</v>
       </c>
       <c r="O177" t="n">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="178">
@@ -13098,7 +13090,7 @@
       </c>
       <c r="D178" s="5" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="E178" s="5" t="inlineStr">
@@ -13123,7 +13115,7 @@
       </c>
       <c r="I178" s="5" t="inlineStr">
         <is>
-          <t>1,033,750,000.00</t>
+          <t>1,031,250,000.00</t>
         </is>
       </c>
       <c r="J178" s="5" t="inlineStr"/>
@@ -13142,7 +13134,7 @@
         <v>0</v>
       </c>
       <c r="O178" s="5" t="n">
-        <v>8.27</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="179">
@@ -13163,12 +13155,12 @@
       </c>
       <c r="D179" s="7" t="inlineStr">
         <is>
-          <t>339.00</t>
+          <t>335.00</t>
         </is>
       </c>
       <c r="E179" s="7" t="inlineStr">
         <is>
-          <t>365.59</t>
+          <t>365.20</t>
         </is>
       </c>
       <c r="F179" s="7" t="inlineStr">
@@ -13183,7 +13175,7 @@
       </c>
       <c r="H179" s="7" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>18.99</t>
         </is>
       </c>
       <c r="I179" s="7" t="inlineStr">
@@ -13193,12 +13185,12 @@
       </c>
       <c r="J179" s="7" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K179" s="7" t="inlineStr">
         <is>
-          <t>33,309,642,042.90</t>
+          <t>32,916,607,918.50</t>
         </is>
       </c>
       <c r="L179" s="7" t="inlineStr">
@@ -13215,7 +13207,7 @@
         <v>259.961849124059</v>
       </c>
       <c r="O179" s="7" t="n">
-        <v>79.03815087594103</v>
+        <v>75.03815087594103</v>
       </c>
     </row>
     <row r="180">
@@ -13279,12 +13271,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>395.10</t>
+          <t>397.50</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>423.75</t>
+          <t>423.78</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -13299,7 +13291,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>17.77</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13309,12 +13301,12 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>49,484,010,405.33</t>
+          <t>49,784,596,649.25</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -13331,7 +13323,7 @@
         <v>293.5134443258094</v>
       </c>
       <c r="O181" t="n">
-        <v>101.5865556741907</v>
+        <v>103.9865556741906</v>
       </c>
     </row>
     <row r="182">
@@ -13352,12 +13344,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>436.00</t>
+          <t>440.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>476.05</t>
+          <t>476.10</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -13372,7 +13364,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>18.93</t>
+          <t>19.11</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13382,12 +13374,12 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>41,112,419,440.00</t>
+          <t>41,489,597,600.00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -13404,7 +13396,7 @@
         <v>310.3353113972047</v>
       </c>
       <c r="O182" t="n">
-        <v>125.6646886027953</v>
+        <v>129.6646886027953</v>
       </c>
     </row>
     <row r="183">
@@ -13425,12 +13417,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>1,228.00</t>
+          <t>1,200.00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>1,288.53</t>
+          <t>1,287.41</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -13445,7 +13437,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>32.09</t>
+          <t>31.36</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13455,12 +13447,12 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>3,944,649,140.00</t>
+          <t>3,854,706,000.00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -13477,7 +13469,7 @@
         <v>356.4430056123981</v>
       </c>
       <c r="O183" t="n">
-        <v>871.5569943876019</v>
+        <v>843.5569943876019</v>
       </c>
     </row>
     <row r="184">
@@ -13498,7 +13490,7 @@
       </c>
       <c r="D184" s="5" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E184" s="5" t="inlineStr">
@@ -13523,7 +13515,7 @@
       </c>
       <c r="I184" s="5" t="inlineStr">
         <is>
-          <t>1,683,000,000.00</t>
+          <t>1,618,500,000.00</t>
         </is>
       </c>
       <c r="J184" s="5" t="inlineStr"/>
@@ -13542,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="O184" s="5" t="n">
-        <v>11.22</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="185">
@@ -13563,12 +13555,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>275.10</t>
+          <t>280.00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>357.24</t>
+          <t>357.30</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -13583,7 +13575,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>598.04</t>
+          <t>608.70</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13593,12 +13585,12 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2,252,825,536.50</t>
+          <t>2,292,952,200.00</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -13615,7 +13607,7 @@
         <v>28.71017241327541</v>
       </c>
       <c r="O185" t="n">
-        <v>246.3898275867246</v>
+        <v>251.2898275867246</v>
       </c>
     </row>
     <row r="186">
@@ -13701,12 +13693,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>533.10</t>
+          <t>540.50</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>605.33</t>
+          <t>605.42</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -13721,7 +13713,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>45.88</t>
+          <t>46.51</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13731,12 +13723,12 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>5,331,000,000.00</t>
+          <t>5,405,000,000.00</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -13753,7 +13745,7 @@
         <v>170.4934338911619</v>
       </c>
       <c r="O187" t="n">
-        <v>362.6065661088381</v>
+        <v>370.0065661088381</v>
       </c>
     </row>
     <row r="188">
@@ -13774,12 +13766,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>342.00</t>
+          <t>348.00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>437.67</t>
+          <t>437.74</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -13794,7 +13786,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>135.18</t>
+          <t>137.55</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13804,12 +13796,12 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>4,959,000,000.00</t>
+          <t>5,046,000,000.00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -13826,7 +13818,7 @@
         <v>77.09804472228851</v>
       </c>
       <c r="O188" t="n">
-        <v>264.9019552777115</v>
+        <v>270.9019552777115</v>
       </c>
     </row>
     <row r="189">
@@ -13847,12 +13839,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>370.00</t>
+          <t>377.30</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>405.48</t>
+          <t>405.57</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -13867,7 +13859,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>21.65</t>
+          <t>22.08</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13877,12 +13869,12 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>13,989,733,337.00</t>
+          <t>14,265,746,994.73</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -13899,7 +13891,7 @@
         <v>231.4563090520541</v>
       </c>
       <c r="O189" t="n">
-        <v>138.5436909479459</v>
+        <v>145.8436909479459</v>
       </c>
     </row>
     <row r="190">
@@ -13920,12 +13912,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>935.00</t>
+          <t>940.00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>1,287.12</t>
+          <t>1,287.19</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -13940,7 +13932,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>48.15</t>
+          <t>48.40</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -13950,12 +13942,12 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>41,140,000,000.00</t>
+          <t>41,360,000,000.00</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -13972,7 +13964,7 @@
         <v>298.259367832764</v>
       </c>
       <c r="O190" t="n">
-        <v>636.7406321672361</v>
+        <v>641.7406321672361</v>
       </c>
     </row>
     <row r="191">
@@ -13993,12 +13985,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>226.10</t>
+          <t>228.00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>221.57</t>
+          <t>221.60</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -14013,7 +14005,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>194.91</t>
+          <t>196.55</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14023,12 +14015,12 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>1,905,072,769.53</t>
+          <t>1,921,081,784.40</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -14045,7 +14037,7 @@
         <v>21.42050419574665</v>
       </c>
       <c r="O191" t="n">
-        <v>204.6794958042533</v>
+        <v>206.5794958042534</v>
       </c>
     </row>
     <row r="192">
@@ -14066,12 +14058,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>375.00</t>
+          <t>377.00</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>415.03</t>
+          <t>415.05</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -14086,7 +14078,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>15.59</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14096,12 +14088,12 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>11,584,691,250.00</t>
+          <t>11,646,476,270.00</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -14118,7 +14110,7 @@
         <v>259.2967050504113</v>
       </c>
       <c r="O192" t="n">
-        <v>115.7032949495887</v>
+        <v>117.7032949495887</v>
       </c>
     </row>
     <row r="193">
@@ -14139,12 +14131,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>1,300.00</t>
+          <t>1,310.00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>1,333.74</t>
+          <t>1,333.44</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -14159,7 +14151,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>40.65</t>
+          <t>40.96</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14169,12 +14161,12 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>14,447,641,000.00</t>
+          <t>14,558,776,700.00</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -14191,7 +14183,7 @@
         <v>328.3993818508189</v>
       </c>
       <c r="O193" t="n">
-        <v>971.6006181491811</v>
+        <v>981.6006181491811</v>
       </c>
     </row>
     <row r="194">
@@ -14212,12 +14204,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>1,120.00</t>
+          <t>1,130.00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>1,513.97</t>
+          <t>1,514.10</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -14232,7 +14224,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>52.68</t>
+          <t>53.15</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14242,12 +14234,12 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>25,604,109,440.00</t>
+          <t>25,832,717,560.00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -14264,7 +14256,7 @@
         <v>249.6960932814128</v>
       </c>
       <c r="O194" t="n">
-        <v>870.3039067185872</v>
+        <v>880.3039067185872</v>
       </c>
     </row>
     <row r="195">
@@ -14285,12 +14277,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>380.00</t>
+          <t>376.70</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>432.18</t>
+          <t>432.13</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -14305,7 +14297,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>38.42</t>
+          <t>38.09</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14315,12 +14307,12 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>3,642,965,000.00</t>
+          <t>3,611,328,725.00</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -14337,7 +14329,7 @@
         <v>174.9968299712883</v>
       </c>
       <c r="O195" t="n">
-        <v>205.0031700287117</v>
+        <v>201.7031700287116</v>
       </c>
     </row>
     <row r="196">
@@ -14423,12 +14415,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>780.00</t>
+          <t>775.00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>937.25</t>
+          <t>935.19</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -14443,7 +14435,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>35.58</t>
+          <t>35.36</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14453,12 +14445,12 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>10,046,400,000.00</t>
+          <t>9,982,000,000.00</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -14475,7 +14467,7 @@
         <v>254.7261117357229</v>
       </c>
       <c r="O197" t="n">
-        <v>525.273888264277</v>
+        <v>520.273888264277</v>
       </c>
     </row>
     <row r="198">
@@ -14496,12 +14488,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>335.30</t>
+          <t>335.50</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>383.63</t>
+          <t>383.03</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -14516,7 +14508,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>32.36</t>
+          <t>32.38</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14526,12 +14518,12 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>1,869,150,202.71</t>
+          <t>1,870,265,114.85</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -14548,7 +14540,7 @@
         <v>163.7624957064345</v>
       </c>
       <c r="O198" t="n">
-        <v>171.5375042935655</v>
+        <v>171.7375042935655</v>
       </c>
     </row>
     <row r="199">
@@ -14569,12 +14561,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>336.00</t>
+          <t>341.10</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>378.66</t>
+          <t>378.72</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -14589,7 +14581,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>-373.33</t>
+          <t>-379.00</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14599,12 +14591,12 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>11,037,600,000.00</t>
+          <t>11,205,135,000.00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -14621,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="O199" t="n">
-        <v>336</v>
+        <v>341.1</v>
       </c>
     </row>
     <row r="200">
@@ -14642,12 +14634,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>1,185.00</t>
+          <t>1,178.00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>1,267.52</t>
+          <t>1,267.43</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -14662,7 +14654,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>28.62</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14672,12 +14664,12 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>18,538,302,700.50</t>
+          <t>18,428,793,739.40</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -14694,7 +14686,7 @@
         <v>478.2278536430098</v>
       </c>
       <c r="O200" t="n">
-        <v>706.7721463569902</v>
+        <v>699.7721463569902</v>
       </c>
     </row>
     <row r="201">
@@ -14715,12 +14707,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>945.00</t>
+          <t>930.30</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>1,068.28</t>
+          <t>1,066.54</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -14735,7 +14727,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>26.52</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14745,12 +14737,12 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>4,858,236,684.00</t>
+          <t>4,782,664,113.36</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -14767,7 +14759,7 @@
         <v>327.2736011351969</v>
       </c>
       <c r="O201" t="n">
-        <v>617.7263988648031</v>
+        <v>603.026398864803</v>
       </c>
     </row>
     <row r="202">
@@ -14788,12 +14780,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>1,310.00</t>
+          <t>1,315.00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>1,276.66</t>
+          <t>1,276.73</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -14808,7 +14800,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>33.50</t>
+          <t>33.63</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14818,12 +14810,12 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>1,729,200,000.00</t>
+          <t>1,735,800,000.00</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -14840,7 +14832,7 @@
         <v>386.5901317933503</v>
       </c>
       <c r="O202" t="n">
-        <v>923.4098682066497</v>
+        <v>928.4098682066497</v>
       </c>
     </row>
     <row r="203">
@@ -14861,12 +14853,12 @@
       </c>
       <c r="D203" s="5" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="E203" s="5" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="F203" s="5" t="inlineStr">
@@ -14886,7 +14878,7 @@
       </c>
       <c r="I203" s="5" t="inlineStr">
         <is>
-          <t>1,066,800,000.00</t>
+          <t>1,032,000,000.00</t>
         </is>
       </c>
       <c r="J203" s="5" t="inlineStr"/>
@@ -14905,7 +14897,7 @@
         <v>0</v>
       </c>
       <c r="O203" s="5" t="n">
-        <v>8.890000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="204">
@@ -14926,12 +14918,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>506.10</t>
+          <t>509.00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>555.77</t>
+          <t>555.81</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -14956,12 +14948,12 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>10,122,000,000.00</t>
+          <t>10,180,000,000.00</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -14978,7 +14970,7 @@
         <v>0</v>
       </c>
       <c r="O204" t="n">
-        <v>506.1</v>
+        <v>509</v>
       </c>
     </row>
     <row r="205">
@@ -14999,12 +14991,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>630.00</t>
+          <t>639.90</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>729.65</t>
+          <t>729.77</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -15029,12 +15021,12 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>16,066,776,600.00</t>
+          <t>16,319,254,518.00</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -15051,7 +15043,7 @@
         <v>0</v>
       </c>
       <c r="O205" t="n">
-        <v>630</v>
+        <v>639.9</v>
       </c>
     </row>
     <row r="206">
@@ -15072,12 +15064,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>970.00</t>
+          <t>988.90</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>1,110.25</t>
+          <t>1,108.71</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -15092,7 +15084,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>46.79</t>
+          <t>47.70</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15102,12 +15094,12 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>3,324,618,643.00</t>
+          <t>3,389,397,294.91</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -15124,7 +15116,7 @@
         <v>257.5919651309023</v>
       </c>
       <c r="O206" t="n">
-        <v>712.4080348690977</v>
+        <v>731.3080348690976</v>
       </c>
     </row>
     <row r="207">
@@ -15145,12 +15137,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>1,668.10</t>
+          <t>1,640.10</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>1,828.49</t>
+          <t>1,826.10</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -15165,7 +15157,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>72.24</t>
+          <t>71.03</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15175,12 +15167,12 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>11.33</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>1,431,229,800.00</t>
+          <t>1,407,205,800.00</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -15197,7 +15189,7 @@
         <v>276.623999772254</v>
       </c>
       <c r="O207" t="n">
-        <v>1391.476000227746</v>
+        <v>1363.476000227746</v>
       </c>
     </row>
     <row r="208">
@@ -15266,7 +15258,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>1,868.94</t>
+          <t>1,865.50</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -15334,12 +15326,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>1,075.00</t>
+          <t>1,040.00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>1,161.26</t>
+          <t>1,159.72</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -15354,7 +15346,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>33.92</t>
+          <t>32.82</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15364,12 +15356,12 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>5,310,500,000.00</t>
+          <t>5,137,600,000.00</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -15386,7 +15378,7 @@
         <v>322.2277152884277</v>
       </c>
       <c r="O210" t="n">
-        <v>752.7722847115723</v>
+        <v>717.7722847115723</v>
       </c>
     </row>
     <row r="211">
@@ -15407,12 +15399,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>500.00</t>
+          <t>514.00</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>615.44</t>
+          <t>615.62</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -15427,7 +15419,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>-21.23</t>
+          <t>-21.83</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15437,12 +15429,12 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>2,500,000,000.00</t>
+          <t>2,570,000,000.00</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -15459,7 +15451,7 @@
         <v>0</v>
       </c>
       <c r="O211" t="n">
-        <v>500</v>
+        <v>514</v>
       </c>
     </row>
     <row r="212">
@@ -15480,12 +15472,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>360.00</t>
+          <t>368.90</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>447.04</t>
+          <t>447.16</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -15500,7 +15492,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>31.06</t>
+          <t>31.83</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15510,12 +15502,12 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>2,903,670,000.00</t>
+          <t>2,975,455,175.00</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -15532,7 +15524,7 @@
         <v>167.018267713445</v>
       </c>
       <c r="O212" t="n">
-        <v>192.981732286555</v>
+        <v>201.8817322865549</v>
       </c>
     </row>
     <row r="213">
@@ -15553,12 +15545,12 @@
       </c>
       <c r="D213" s="6" t="inlineStr">
         <is>
-          <t>232.10</t>
+          <t>240.70</t>
         </is>
       </c>
       <c r="E213" s="6" t="inlineStr">
         <is>
-          <t>268.41</t>
+          <t>268.52</t>
         </is>
       </c>
       <c r="F213" s="6" t="inlineStr">
@@ -15573,7 +15565,7 @@
       </c>
       <c r="H213" s="6" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>14.30</t>
         </is>
       </c>
       <c r="I213" s="6" t="inlineStr">
@@ -15583,12 +15575,12 @@
       </c>
       <c r="J213" s="6" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="K213" s="6" t="inlineStr">
         <is>
-          <t>23,485,950,188.80</t>
+          <t>24,356,174,969.60</t>
         </is>
       </c>
       <c r="L213" s="6" t="inlineStr">
@@ -15605,7 +15597,7 @@
         <v>243.905396619263</v>
       </c>
       <c r="O213" s="6" t="n">
-        <v>-11.80539661926301</v>
+        <v>-3.205396619263013</v>
       </c>
     </row>
     <row r="214">
@@ -15626,12 +15618,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>293.10</t>
+          <t>297.00</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>347.77</t>
+          <t>347.82</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -15646,7 +15638,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>-12.00</t>
+          <t>-12.16</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15656,12 +15648,12 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>4,327,328,400.00</t>
+          <t>4,384,908,000.00</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -15678,7 +15670,7 @@
         <v>0</v>
       </c>
       <c r="O214" t="n">
-        <v>293.1</v>
+        <v>297</v>
       </c>
     </row>
     <row r="215">
@@ -15699,12 +15691,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>4,282.00</t>
+          <t>4,126.00</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>5,715.66</t>
+          <t>5,713.68</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -15719,7 +15711,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>386.11</t>
+          <t>372.05</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15729,12 +15721,12 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>9,869,277,778.00</t>
+          <t>9,509,724,454.00</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -15751,7 +15743,7 @@
         <v>409.5341606630636</v>
       </c>
       <c r="O215" t="n">
-        <v>3872.465839336936</v>
+        <v>3716.465839336936</v>
       </c>
     </row>
     <row r="216">
@@ -15772,12 +15764,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>1,137.10</t>
+          <t>1,172.90</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>1,257.96</t>
+          <t>1,258.42</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -15792,7 +15784,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>27.14</t>
+          <t>27.99</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15802,12 +15794,12 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>12,760,195,070.00</t>
+          <t>13,161,931,930.00</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -15824,7 +15816,7 @@
         <v>495.509646727488</v>
       </c>
       <c r="O216" t="n">
-        <v>641.5903532725119</v>
+        <v>677.3903532725121</v>
       </c>
     </row>
     <row r="217">
@@ -15845,12 +15837,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>475.00</t>
+          <t>490.00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>586.08</t>
+          <t>586.27</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -15865,7 +15857,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>55.30</t>
+          <t>57.04</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15875,12 +15867,12 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>1,900,000,000.00</t>
+          <t>1,960,000,000.00</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -15897,7 +15889,7 @@
         <v>124.3229735406936</v>
       </c>
       <c r="O217" t="n">
-        <v>350.6770264593064</v>
+        <v>365.6770264593064</v>
       </c>
     </row>
     <row r="218">
@@ -15918,12 +15910,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>358.00</t>
+          <t>353.20</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>368.12</t>
+          <t>367.93</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -15938,7 +15930,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>-2,753.85</t>
+          <t>-2,716.92</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -15948,12 +15940,12 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>6,754,221,320.00</t>
+          <t>6,663,661,928.00</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -15970,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="O218" t="n">
-        <v>358</v>
+        <v>353.2</v>
       </c>
     </row>
     <row r="219">
@@ -15991,12 +15983,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>578.30</t>
+          <t>572.00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>664.65</t>
+          <t>664.57</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -16011,7 +16003,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>49.51</t>
+          <t>48.97</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16021,12 +16013,12 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>5,945,849,280.00</t>
+          <t>5,881,075,200.00</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -16043,7 +16035,7 @@
         <v>174.1241970548608</v>
       </c>
       <c r="O219" t="n">
-        <v>404.1758029451391</v>
+        <v>397.8758029451392</v>
       </c>
     </row>
     <row r="220">
@@ -16064,12 +16056,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>601.00</t>
+          <t>605.00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>668.16</t>
+          <t>668.21</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -16094,12 +16086,12 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>12,921,500,000.00</t>
+          <t>13,007,500,000.00</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -16116,7 +16108,7 @@
         <v>0</v>
       </c>
       <c r="O220" t="n">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="221">
@@ -16137,12 +16129,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>296.00</t>
+          <t>298.00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>377.03</t>
+          <t>377.05</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -16157,7 +16149,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>68.68</t>
+          <t>69.14</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16167,12 +16159,12 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>3,404,000,000.00</t>
+          <t>3,427,000,000.00</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -16189,7 +16181,7 @@
         <v>102.7457955344159</v>
       </c>
       <c r="O221" t="n">
-        <v>193.2542044655841</v>
+        <v>195.2542044655841</v>
       </c>
     </row>
     <row r="222">
@@ -16210,12 +16202,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>850.00</t>
+          <t>870.00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>782.02</t>
+          <t>782.27</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -16230,7 +16222,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>37.40</t>
+          <t>38.28</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16240,12 +16232,12 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>3,570,000,000.00</t>
+          <t>3,654,000,000.00</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -16262,7 +16254,7 @@
         <v>238.8716962094923</v>
       </c>
       <c r="O222" t="n">
-        <v>611.1283037905076</v>
+        <v>631.1283037905076</v>
       </c>
     </row>
     <row r="223">
@@ -16283,12 +16275,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>284.20</t>
+          <t>291.00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>350.09</t>
+          <t>350.17</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -16303,7 +16295,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>53.93</t>
+          <t>55.22</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16313,12 +16305,12 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>2,131,500,000.00</t>
+          <t>2,182,500,000.00</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -16335,7 +16327,7 @@
         <v>104.7291148630599</v>
       </c>
       <c r="O223" t="n">
-        <v>179.4708851369401</v>
+        <v>186.2708851369401</v>
       </c>
     </row>
     <row r="224">
@@ -16356,12 +16348,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>19,000.00</t>
+          <t>19,299.00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>19,021.75</t>
+          <t>19,026.01</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -16376,7 +16368,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>28.10</t>
+          <t>28.54</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16386,12 +16378,12 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>17,499,000,000.00</t>
+          <t>17,774,379,000.00</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -16408,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="O224" t="n">
-        <v>19000</v>
+        <v>19299</v>
       </c>
     </row>
     <row r="225">
@@ -16429,12 +16421,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>258.00</t>
+          <t>262.00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>346.55</t>
+          <t>346.60</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -16449,7 +16441,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>130.96</t>
+          <t>132.99</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16459,12 +16451,12 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>5,418,903,000.00</t>
+          <t>5,502,917,000.00</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -16481,7 +16473,7 @@
         <v>68.98998840411556</v>
       </c>
       <c r="O225" t="n">
-        <v>189.0100115958844</v>
+        <v>193.0100115958844</v>
       </c>
     </row>
     <row r="226">
@@ -16502,12 +16494,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>520.00</t>
+          <t>526.00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>636.22</t>
+          <t>636.29</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -16522,7 +16514,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>-83.33</t>
+          <t>-84.29</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16532,12 +16524,12 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>55,068,000,000.00</t>
+          <t>55,703,400,000.00</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -16554,7 +16546,7 @@
         <v>0</v>
       </c>
       <c r="O226" t="n">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="227">
@@ -16575,12 +16567,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>1,334.50</t>
+          <t>1,334.00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>1,506.06</t>
+          <t>1,503.86</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -16595,7 +16587,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>55.70</t>
+          <t>55.68</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16610,7 +16602,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>3,056,262,825.40</t>
+          <t>3,055,117,728.80</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -16627,7 +16619,7 @@
         <v>291.2791753627437</v>
       </c>
       <c r="O227" t="n">
-        <v>1043.220824637256</v>
+        <v>1042.720824637256</v>
       </c>
     </row>
     <row r="228">
@@ -16648,12 +16640,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1,096.00</t>
+          <t>1,085.00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>1,272.73</t>
+          <t>1,270.36</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -16668,7 +16660,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>25.61</t>
+          <t>25.36</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16678,12 +16670,12 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>3,507,200,000.00</t>
+          <t>3,472,000,000.00</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -16700,7 +16692,7 @@
         <v>392.6438090050574</v>
       </c>
       <c r="O228" t="n">
-        <v>703.3561909949426</v>
+        <v>692.3561909949426</v>
       </c>
     </row>
     <row r="229">
@@ -16721,12 +16713,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>1,215.40</t>
+          <t>1,216.10</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>1,419.23</t>
+          <t>1,419.24</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -16741,7 +16733,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>265.37</t>
+          <t>265.52</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16751,12 +16743,12 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>924,858,630.00</t>
+          <t>925,391,295.00</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -16773,7 +16765,7 @@
         <v>114.9974195362661</v>
       </c>
       <c r="O229" t="n">
-        <v>1100.402580463734</v>
+        <v>1101.102580463734</v>
       </c>
     </row>
   </sheetData>
